--- a/2_pipeline/tmp/main-2-cmfd.xlsx
+++ b/2_pipeline/tmp/main-2-cmfd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawaiyuen/nlpworkshop/concept-creep-chi/2_pipeline/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD98D1A4-BF22-684F-A956-3F86719B167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AF9983-6A73-0841-AE72-DDFC0B8F3FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{2401ACDE-BA78-8C43-8109-10A691CE2209}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Year</t>
   </si>
@@ -169,6 +169,150 @@
   </si>
   <si>
     <t>General Morality</t>
+  </si>
+  <si>
+    <t>prejudice_care</t>
+  </si>
+  <si>
+    <t>prejudice_fair</t>
+  </si>
+  <si>
+    <t>prejudice_loya</t>
+  </si>
+  <si>
+    <t>prejudice_auth</t>
+  </si>
+  <si>
+    <t>prejudice_sanc</t>
+  </si>
+  <si>
+    <t>prejudice_general</t>
+  </si>
+  <si>
+    <t>bullying_care</t>
+  </si>
+  <si>
+    <t>bullying_fair</t>
+  </si>
+  <si>
+    <t>bullying_loya</t>
+  </si>
+  <si>
+    <t>bullying_auth</t>
+  </si>
+  <si>
+    <t>bullying_sanc</t>
+  </si>
+  <si>
+    <t>bullying_general</t>
+  </si>
+  <si>
+    <t>mental disorder_care</t>
+  </si>
+  <si>
+    <t>mental disorder_fair</t>
+  </si>
+  <si>
+    <t>mental disorder_loya</t>
+  </si>
+  <si>
+    <t>mental disorder_auth</t>
+  </si>
+  <si>
+    <t>mental disorder_sanc</t>
+  </si>
+  <si>
+    <t>mental disorder_general</t>
+  </si>
+  <si>
+    <t>trauma_care</t>
+  </si>
+  <si>
+    <t>trauma_fair</t>
+  </si>
+  <si>
+    <t>trauma_loya</t>
+  </si>
+  <si>
+    <t>trauma_auth</t>
+  </si>
+  <si>
+    <t>trauma_sanc</t>
+  </si>
+  <si>
+    <t>trauma_general</t>
+  </si>
+  <si>
+    <t>secession_care</t>
+  </si>
+  <si>
+    <t>secession_fair</t>
+  </si>
+  <si>
+    <t>secession_loya</t>
+  </si>
+  <si>
+    <t>secession_auth</t>
+  </si>
+  <si>
+    <t>secession_sanc</t>
+  </si>
+  <si>
+    <t>secession_general</t>
+  </si>
+  <si>
+    <t>conspiracy_care</t>
+  </si>
+  <si>
+    <t>conspiracy_fair</t>
+  </si>
+  <si>
+    <t>conspiracy_loya</t>
+  </si>
+  <si>
+    <t>conspiracy_auth</t>
+  </si>
+  <si>
+    <t>conspiracy_sanc</t>
+  </si>
+  <si>
+    <t>conspiracy_general</t>
+  </si>
+  <si>
+    <t>sovereignty_care</t>
+  </si>
+  <si>
+    <t>sovereignty_fair</t>
+  </si>
+  <si>
+    <t>sovereignty_loya</t>
+  </si>
+  <si>
+    <t>sovereignty_auth</t>
+  </si>
+  <si>
+    <t>sovereignty_sanc</t>
+  </si>
+  <si>
+    <t>sovereignty_general</t>
+  </si>
+  <si>
+    <t>terrorism_care</t>
+  </si>
+  <si>
+    <t>terrorism_fair</t>
+  </si>
+  <si>
+    <t>terrorism_loya</t>
+  </si>
+  <si>
+    <t>terrorism_auth</t>
+  </si>
+  <si>
+    <t>terrorism_sanc</t>
+  </si>
+  <si>
+    <t>terrorism_general</t>
   </si>
 </sst>
 </file>
@@ -554,15 +698,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBFE069-D049-EC4A-ADF0-4332E77F95FC}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="AW2" workbookViewId="0">
+      <selection activeCell="BM32" sqref="BM32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,8 +752,152 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1979</v>
       </c>
@@ -655,8 +943,152 @@
       <c r="O2">
         <v>3.3516711663647301</v>
       </c>
+      <c r="P2">
+        <v>0.65343963999999999</v>
+      </c>
+      <c r="Q2">
+        <v>0.75491629999999998</v>
+      </c>
+      <c r="R2">
+        <v>0.66966250000000005</v>
+      </c>
+      <c r="S2">
+        <v>0.63765185999999996</v>
+      </c>
+      <c r="T2">
+        <v>0.72127580000000002</v>
+      </c>
+      <c r="U2">
+        <v>0.7574552</v>
+      </c>
+      <c r="V2">
+        <v>0.79670125000000003</v>
+      </c>
+      <c r="W2">
+        <v>0.74702360000000001</v>
+      </c>
+      <c r="X2">
+        <v>0.7510983</v>
+      </c>
+      <c r="Y2">
+        <v>0.66673649999999995</v>
+      </c>
+      <c r="Z2">
+        <v>0.78855560000000002</v>
+      </c>
+      <c r="AA2">
+        <v>0.73467649999999995</v>
+      </c>
+      <c r="AB2">
+        <v>0.78923237323760898</v>
+      </c>
+      <c r="AC2">
+        <v>0.80750507116317705</v>
+      </c>
+      <c r="AD2">
+        <v>0.69224888086318903</v>
+      </c>
+      <c r="AE2">
+        <v>0.75058138370513905</v>
+      </c>
+      <c r="AF2">
+        <v>0.79143643379211404</v>
+      </c>
+      <c r="AG2">
+        <v>0.74283766746520996</v>
+      </c>
+      <c r="AH2">
+        <v>0.64038676000000005</v>
+      </c>
+      <c r="AI2">
+        <v>0.54520690000000005</v>
+      </c>
+      <c r="AJ2">
+        <v>0.55339939999999999</v>
+      </c>
+      <c r="AK2">
+        <v>0.4645244</v>
+      </c>
+      <c r="AL2">
+        <v>0.61540043</v>
+      </c>
+      <c r="AM2">
+        <v>0.62023353999999997</v>
+      </c>
+      <c r="AN2">
+        <v>0.55978170000000005</v>
+      </c>
+      <c r="AO2">
+        <v>0.55352539999999995</v>
+      </c>
+      <c r="AP2">
+        <v>0.59477100000000005</v>
+      </c>
+      <c r="AQ2">
+        <v>0.54039789999999999</v>
+      </c>
+      <c r="AR2">
+        <v>0.51582609999999995</v>
+      </c>
+      <c r="AS2">
+        <v>0.51073919999999995</v>
+      </c>
+      <c r="AT2">
+        <v>0.58699610000000002</v>
+      </c>
+      <c r="AU2">
+        <v>0.57033929999999999</v>
+      </c>
+      <c r="AV2">
+        <v>0.58984786</v>
+      </c>
+      <c r="AW2">
+        <v>0.57136929999999997</v>
+      </c>
+      <c r="AX2">
+        <v>0.54753419999999997</v>
+      </c>
+      <c r="AY2">
+        <v>0.51424809999999999</v>
+      </c>
+      <c r="AZ2">
+        <v>0.56472074999999999</v>
+      </c>
+      <c r="BA2">
+        <v>0.59582882999999998</v>
+      </c>
+      <c r="BB2">
+        <v>0.6060759</v>
+      </c>
+      <c r="BC2">
+        <v>0.56144550000000004</v>
+      </c>
+      <c r="BD2">
+        <v>0.53413796000000002</v>
+      </c>
+      <c r="BE2">
+        <v>0.53475360000000005</v>
+      </c>
+      <c r="BF2">
+        <v>0.80839443</v>
+      </c>
+      <c r="BG2">
+        <v>0.78883356000000004</v>
+      </c>
+      <c r="BH2">
+        <v>0.80926399999999998</v>
+      </c>
+      <c r="BI2">
+        <v>0.79416083999999998</v>
+      </c>
+      <c r="BJ2">
+        <v>0.78582629999999998</v>
+      </c>
+      <c r="BK2">
+        <v>0.75209780000000004</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1980</v>
       </c>
@@ -702,8 +1134,152 @@
       <c r="O3">
         <v>3.3497521890951698</v>
       </c>
+      <c r="P3">
+        <v>0.63975749999999998</v>
+      </c>
+      <c r="Q3">
+        <v>0.71299650000000003</v>
+      </c>
+      <c r="R3">
+        <v>0.64684664999999997</v>
+      </c>
+      <c r="S3">
+        <v>0.60202920000000004</v>
+      </c>
+      <c r="T3">
+        <v>0.689554</v>
+      </c>
+      <c r="U3">
+        <v>0.74500703999999995</v>
+      </c>
+      <c r="V3">
+        <v>0.84149839999999998</v>
+      </c>
+      <c r="W3">
+        <v>0.78620045999999999</v>
+      </c>
+      <c r="X3">
+        <v>0.81341934000000005</v>
+      </c>
+      <c r="Y3">
+        <v>0.74527350000000003</v>
+      </c>
+      <c r="Z3">
+        <v>0.83758754000000002</v>
+      </c>
+      <c r="AA3">
+        <v>0.77976005999999998</v>
+      </c>
+      <c r="AB3">
+        <v>0.56193506717681796</v>
+      </c>
+      <c r="AC3">
+        <v>0.46375826001167297</v>
+      </c>
+      <c r="AD3">
+        <v>0.48013192415237399</v>
+      </c>
+      <c r="AE3">
+        <v>0.52438795566558805</v>
+      </c>
+      <c r="AF3">
+        <v>0.51663506031036299</v>
+      </c>
+      <c r="AG3">
+        <v>0.463165283203125</v>
+      </c>
+      <c r="AH3">
+        <v>0.64548539999999999</v>
+      </c>
+      <c r="AI3">
+        <v>0.54877220000000004</v>
+      </c>
+      <c r="AJ3">
+        <v>0.57207704000000004</v>
+      </c>
+      <c r="AK3">
+        <v>0.46773105999999998</v>
+      </c>
+      <c r="AL3">
+        <v>0.63317420000000002</v>
+      </c>
+      <c r="AM3">
+        <v>0.63004369999999998</v>
+      </c>
+      <c r="AN3">
+        <v>0.56540369999999995</v>
+      </c>
+      <c r="AO3">
+        <v>0.56707540000000001</v>
+      </c>
+      <c r="AP3">
+        <v>0.60677356000000005</v>
+      </c>
+      <c r="AQ3">
+        <v>0.56003210000000003</v>
+      </c>
+      <c r="AR3">
+        <v>0.53189933</v>
+      </c>
+      <c r="AS3">
+        <v>0.50565903999999995</v>
+      </c>
+      <c r="AT3">
+        <v>0.57755314999999996</v>
+      </c>
+      <c r="AU3">
+        <v>0.56914909999999996</v>
+      </c>
+      <c r="AV3">
+        <v>0.58319259999999995</v>
+      </c>
+      <c r="AW3">
+        <v>0.57820680000000002</v>
+      </c>
+      <c r="AX3">
+        <v>0.50973964000000005</v>
+      </c>
+      <c r="AY3">
+        <v>0.46259767000000002</v>
+      </c>
+      <c r="AZ3">
+        <v>0.56969860000000005</v>
+      </c>
+      <c r="BA3">
+        <v>0.61370194</v>
+      </c>
+      <c r="BB3">
+        <v>0.60715629999999998</v>
+      </c>
+      <c r="BC3">
+        <v>0.57656943999999999</v>
+      </c>
+      <c r="BD3">
+        <v>0.53061944000000005</v>
+      </c>
+      <c r="BE3">
+        <v>0.5310068</v>
+      </c>
+      <c r="BF3">
+        <v>0.6890503</v>
+      </c>
+      <c r="BG3">
+        <v>0.70185626000000001</v>
+      </c>
+      <c r="BH3">
+        <v>0.72762470000000001</v>
+      </c>
+      <c r="BI3">
+        <v>0.72449350000000001</v>
+      </c>
+      <c r="BJ3">
+        <v>0.6335906</v>
+      </c>
+      <c r="BK3">
+        <v>0.62378173999999997</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1981</v>
       </c>
@@ -749,8 +1325,152 @@
       <c r="O4">
         <v>3.2713660408168002</v>
       </c>
+      <c r="P4">
+        <v>0.66732519999999995</v>
+      </c>
+      <c r="Q4">
+        <v>0.73352099999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.67941249999999997</v>
+      </c>
+      <c r="S4">
+        <v>0.62610929999999998</v>
+      </c>
+      <c r="T4">
+        <v>0.73103300000000004</v>
+      </c>
+      <c r="U4">
+        <v>0.76330536999999998</v>
+      </c>
+      <c r="V4">
+        <v>0.75867826000000005</v>
+      </c>
+      <c r="W4">
+        <v>0.68917227000000003</v>
+      </c>
+      <c r="X4">
+        <v>0.72159099999999998</v>
+      </c>
+      <c r="Y4">
+        <v>0.63273643999999996</v>
+      </c>
+      <c r="Z4">
+        <v>0.77839303000000004</v>
+      </c>
+      <c r="AA4">
+        <v>0.68953204000000001</v>
+      </c>
+      <c r="AB4">
+        <v>0.66205191612243597</v>
+      </c>
+      <c r="AC4">
+        <v>0.56756502389907804</v>
+      </c>
+      <c r="AD4">
+        <v>0.56128036975860596</v>
+      </c>
+      <c r="AE4">
+        <v>0.55192631483078003</v>
+      </c>
+      <c r="AF4">
+        <v>0.65025329589843694</v>
+      </c>
+      <c r="AG4">
+        <v>0.61628139019012396</v>
+      </c>
+      <c r="AH4">
+        <v>0.66148794</v>
+      </c>
+      <c r="AI4">
+        <v>0.57588930000000005</v>
+      </c>
+      <c r="AJ4">
+        <v>0.56024929999999995</v>
+      </c>
+      <c r="AK4">
+        <v>0.47844495999999997</v>
+      </c>
+      <c r="AL4">
+        <v>0.66391027000000002</v>
+      </c>
+      <c r="AM4">
+        <v>0.64441190000000004</v>
+      </c>
+      <c r="AN4">
+        <v>0.55894935000000001</v>
+      </c>
+      <c r="AO4">
+        <v>0.5660018</v>
+      </c>
+      <c r="AP4">
+        <v>0.61113070000000003</v>
+      </c>
+      <c r="AQ4">
+        <v>0.55729055000000005</v>
+      </c>
+      <c r="AR4">
+        <v>0.52173270000000005</v>
+      </c>
+      <c r="AS4">
+        <v>0.52349109999999999</v>
+      </c>
+      <c r="AT4">
+        <v>0.59033095999999996</v>
+      </c>
+      <c r="AU4">
+        <v>0.60051184999999996</v>
+      </c>
+      <c r="AV4">
+        <v>0.60916334000000005</v>
+      </c>
+      <c r="AW4">
+        <v>0.62307626000000005</v>
+      </c>
+      <c r="AX4">
+        <v>0.51689790000000002</v>
+      </c>
+      <c r="AY4">
+        <v>0.5025598</v>
+      </c>
+      <c r="AZ4">
+        <v>0.56127119999999997</v>
+      </c>
+      <c r="BA4">
+        <v>0.61806749999999999</v>
+      </c>
+      <c r="BB4">
+        <v>0.61567720000000004</v>
+      </c>
+      <c r="BC4">
+        <v>0.58419140000000003</v>
+      </c>
+      <c r="BD4">
+        <v>0.53134835000000002</v>
+      </c>
+      <c r="BE4">
+        <v>0.53881394999999999</v>
+      </c>
+      <c r="BF4">
+        <v>0.71128035000000001</v>
+      </c>
+      <c r="BG4">
+        <v>0.69791674999999997</v>
+      </c>
+      <c r="BH4">
+        <v>0.70981514000000001</v>
+      </c>
+      <c r="BI4">
+        <v>0.74276626000000001</v>
+      </c>
+      <c r="BJ4">
+        <v>0.59048699999999998</v>
+      </c>
+      <c r="BK4">
+        <v>0.58265860000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1982</v>
       </c>
@@ -796,8 +1516,152 @@
       <c r="O5">
         <v>3.16419470847744</v>
       </c>
+      <c r="P5">
+        <v>0.61485045999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.68591250000000004</v>
+      </c>
+      <c r="R5">
+        <v>0.61817610000000001</v>
+      </c>
+      <c r="S5">
+        <v>0.5740208</v>
+      </c>
+      <c r="T5">
+        <v>0.67167425000000003</v>
+      </c>
+      <c r="U5">
+        <v>0.70557400000000003</v>
+      </c>
+      <c r="V5">
+        <v>0.75167189999999995</v>
+      </c>
+      <c r="W5">
+        <v>0.68314993000000002</v>
+      </c>
+      <c r="X5">
+        <v>0.72252559999999999</v>
+      </c>
+      <c r="Y5">
+        <v>0.63379454999999996</v>
+      </c>
+      <c r="Z5">
+        <v>0.76186544</v>
+      </c>
+      <c r="AA5">
+        <v>0.68510103</v>
+      </c>
+      <c r="AB5">
+        <v>0.65916973352432195</v>
+      </c>
+      <c r="AC5">
+        <v>0.58305108547210605</v>
+      </c>
+      <c r="AD5">
+        <v>0.55244326591491699</v>
+      </c>
+      <c r="AE5">
+        <v>0.59587430953979403</v>
+      </c>
+      <c r="AF5">
+        <v>0.59505492448806696</v>
+      </c>
+      <c r="AG5">
+        <v>0.51124119758605902</v>
+      </c>
+      <c r="AH5">
+        <v>0.72104829999999998</v>
+      </c>
+      <c r="AI5">
+        <v>0.62108779999999997</v>
+      </c>
+      <c r="AJ5">
+        <v>0.62279620000000002</v>
+      </c>
+      <c r="AK5">
+        <v>0.52727270000000004</v>
+      </c>
+      <c r="AL5">
+        <v>0.70164490000000002</v>
+      </c>
+      <c r="AM5">
+        <v>0.68347610000000003</v>
+      </c>
+      <c r="AN5">
+        <v>0.58484990000000003</v>
+      </c>
+      <c r="AO5">
+        <v>0.59203810000000001</v>
+      </c>
+      <c r="AP5">
+        <v>0.63854489999999997</v>
+      </c>
+      <c r="AQ5">
+        <v>0.58495825999999995</v>
+      </c>
+      <c r="AR5">
+        <v>0.54822709999999997</v>
+      </c>
+      <c r="AS5">
+        <v>0.53568159999999998</v>
+      </c>
+      <c r="AT5">
+        <v>0.58302396999999995</v>
+      </c>
+      <c r="AU5">
+        <v>0.5982691</v>
+      </c>
+      <c r="AV5">
+        <v>0.62078999999999995</v>
+      </c>
+      <c r="AW5">
+        <v>0.61981790000000003</v>
+      </c>
+      <c r="AX5">
+        <v>0.53335357000000005</v>
+      </c>
+      <c r="AY5">
+        <v>0.49716369999999999</v>
+      </c>
+      <c r="AZ5">
+        <v>0.54431003</v>
+      </c>
+      <c r="BA5">
+        <v>0.59818789999999999</v>
+      </c>
+      <c r="BB5">
+        <v>0.58170675999999999</v>
+      </c>
+      <c r="BC5">
+        <v>0.57113754999999999</v>
+      </c>
+      <c r="BD5">
+        <v>0.50473416000000004</v>
+      </c>
+      <c r="BE5">
+        <v>0.51118459999999999</v>
+      </c>
+      <c r="BF5">
+        <v>0.76443209999999995</v>
+      </c>
+      <c r="BG5">
+        <v>0.76480937000000004</v>
+      </c>
+      <c r="BH5">
+        <v>0.73175539999999994</v>
+      </c>
+      <c r="BI5">
+        <v>0.73622560000000004</v>
+      </c>
+      <c r="BJ5">
+        <v>0.69364535999999999</v>
+      </c>
+      <c r="BK5">
+        <v>0.6566746</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1983</v>
       </c>
@@ -843,8 +1707,152 @@
       <c r="O6">
         <v>3.1786416134027098</v>
       </c>
+      <c r="P6">
+        <v>0.54794739999999997</v>
+      </c>
+      <c r="Q6">
+        <v>0.62152229999999997</v>
+      </c>
+      <c r="R6">
+        <v>0.53557999999999995</v>
+      </c>
+      <c r="S6">
+        <v>0.49596783999999999</v>
+      </c>
+      <c r="T6">
+        <v>0.60295359999999998</v>
+      </c>
+      <c r="U6">
+        <v>0.65386856000000004</v>
+      </c>
+      <c r="V6">
+        <v>0.80606509999999998</v>
+      </c>
+      <c r="W6">
+        <v>0.74750910000000004</v>
+      </c>
+      <c r="X6">
+        <v>0.76465355999999995</v>
+      </c>
+      <c r="Y6">
+        <v>0.67788135999999999</v>
+      </c>
+      <c r="Z6">
+        <v>0.79636209999999996</v>
+      </c>
+      <c r="AA6">
+        <v>0.7447859</v>
+      </c>
+      <c r="AB6">
+        <v>0.69538080692291204</v>
+      </c>
+      <c r="AC6">
+        <v>0.67164325714111295</v>
+      </c>
+      <c r="AD6">
+        <v>0.57209038734436002</v>
+      </c>
+      <c r="AE6">
+        <v>0.58987224102020197</v>
+      </c>
+      <c r="AF6">
+        <v>0.66340732574462802</v>
+      </c>
+      <c r="AG6">
+        <v>0.60363745689392001</v>
+      </c>
+      <c r="AH6">
+        <v>0.70151589999999997</v>
+      </c>
+      <c r="AI6">
+        <v>0.61947969999999997</v>
+      </c>
+      <c r="AJ6">
+        <v>0.61277663999999998</v>
+      </c>
+      <c r="AK6">
+        <v>0.52925043999999999</v>
+      </c>
+      <c r="AL6">
+        <v>0.68739810000000001</v>
+      </c>
+      <c r="AM6">
+        <v>0.67808752999999999</v>
+      </c>
+      <c r="AN6">
+        <v>0.56162250000000002</v>
+      </c>
+      <c r="AO6">
+        <v>0.5615696</v>
+      </c>
+      <c r="AP6">
+        <v>0.60496320000000003</v>
+      </c>
+      <c r="AQ6">
+        <v>0.57581450000000001</v>
+      </c>
+      <c r="AR6">
+        <v>0.52668320000000002</v>
+      </c>
+      <c r="AS6">
+        <v>0.50290095999999995</v>
+      </c>
+      <c r="AT6">
+        <v>0.61091169999999995</v>
+      </c>
+      <c r="AU6">
+        <v>0.59983960000000003</v>
+      </c>
+      <c r="AV6">
+        <v>0.62617840000000002</v>
+      </c>
+      <c r="AW6">
+        <v>0.61346495000000001</v>
+      </c>
+      <c r="AX6">
+        <v>0.55380713999999998</v>
+      </c>
+      <c r="AY6">
+        <v>0.53303193999999998</v>
+      </c>
+      <c r="AZ6">
+        <v>0.52464615999999997</v>
+      </c>
+      <c r="BA6">
+        <v>0.5870706</v>
+      </c>
+      <c r="BB6">
+        <v>0.58213514</v>
+      </c>
+      <c r="BC6">
+        <v>0.55092850000000004</v>
+      </c>
+      <c r="BD6">
+        <v>0.48587054000000002</v>
+      </c>
+      <c r="BE6">
+        <v>0.48047289999999998</v>
+      </c>
+      <c r="BF6">
+        <v>0.77336249999999995</v>
+      </c>
+      <c r="BG6">
+        <v>0.77678570000000002</v>
+      </c>
+      <c r="BH6">
+        <v>0.75754449999999995</v>
+      </c>
+      <c r="BI6">
+        <v>0.77626216000000003</v>
+      </c>
+      <c r="BJ6">
+        <v>0.71545499999999995</v>
+      </c>
+      <c r="BK6">
+        <v>0.68068960000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1984</v>
       </c>
@@ -890,8 +1898,152 @@
       <c r="O7">
         <v>3.2769462298007901</v>
       </c>
+      <c r="P7">
+        <v>0.57130610000000004</v>
+      </c>
+      <c r="Q7">
+        <v>0.64063179999999997</v>
+      </c>
+      <c r="R7">
+        <v>0.57812076999999995</v>
+      </c>
+      <c r="S7">
+        <v>0.52742654</v>
+      </c>
+      <c r="T7">
+        <v>0.58956160000000002</v>
+      </c>
+      <c r="U7">
+        <v>0.66336890000000004</v>
+      </c>
+      <c r="V7">
+        <v>0.77526130000000004</v>
+      </c>
+      <c r="W7">
+        <v>0.68404949999999998</v>
+      </c>
+      <c r="X7">
+        <v>0.71035707000000003</v>
+      </c>
+      <c r="Y7">
+        <v>0.63663446999999995</v>
+      </c>
+      <c r="Z7">
+        <v>0.76476425000000003</v>
+      </c>
+      <c r="AA7">
+        <v>0.68131710000000001</v>
+      </c>
+      <c r="AB7">
+        <v>0.65638673305511397</v>
+      </c>
+      <c r="AC7">
+        <v>0.60942900180816595</v>
+      </c>
+      <c r="AD7">
+        <v>0.54435193538665705</v>
+      </c>
+      <c r="AE7">
+        <v>0.58037817478179898</v>
+      </c>
+      <c r="AF7">
+        <v>0.61791920661926203</v>
+      </c>
+      <c r="AG7">
+        <v>0.54235804080963101</v>
+      </c>
+      <c r="AH7">
+        <v>0.7275935</v>
+      </c>
+      <c r="AI7">
+        <v>0.63489119999999999</v>
+      </c>
+      <c r="AJ7">
+        <v>0.65302895999999999</v>
+      </c>
+      <c r="AK7">
+        <v>0.57041169999999997</v>
+      </c>
+      <c r="AL7">
+        <v>0.71778660000000005</v>
+      </c>
+      <c r="AM7">
+        <v>0.6843188</v>
+      </c>
+      <c r="AN7">
+        <v>0.5791809</v>
+      </c>
+      <c r="AO7">
+        <v>0.57825409999999999</v>
+      </c>
+      <c r="AP7">
+        <v>0.62566674</v>
+      </c>
+      <c r="AQ7">
+        <v>0.55345239999999996</v>
+      </c>
+      <c r="AR7">
+        <v>0.55134179999999999</v>
+      </c>
+      <c r="AS7">
+        <v>0.54535334999999996</v>
+      </c>
+      <c r="AT7">
+        <v>0.64306750000000001</v>
+      </c>
+      <c r="AU7">
+        <v>0.61608790000000002</v>
+      </c>
+      <c r="AV7">
+        <v>0.63697165</v>
+      </c>
+      <c r="AW7">
+        <v>0.64872825000000001</v>
+      </c>
+      <c r="AX7">
+        <v>0.55267409999999995</v>
+      </c>
+      <c r="AY7">
+        <v>0.54052359999999999</v>
+      </c>
+      <c r="AZ7">
+        <v>0.54793670000000005</v>
+      </c>
+      <c r="BA7">
+        <v>0.59244406000000005</v>
+      </c>
+      <c r="BB7">
+        <v>0.60372745999999999</v>
+      </c>
+      <c r="BC7">
+        <v>0.57349269999999997</v>
+      </c>
+      <c r="BD7">
+        <v>0.50376683</v>
+      </c>
+      <c r="BE7">
+        <v>0.52254440000000002</v>
+      </c>
+      <c r="BF7">
+        <v>0.72151509999999996</v>
+      </c>
+      <c r="BG7">
+        <v>0.70972900000000005</v>
+      </c>
+      <c r="BH7">
+        <v>0.67721640000000005</v>
+      </c>
+      <c r="BI7">
+        <v>0.70849709999999999</v>
+      </c>
+      <c r="BJ7">
+        <v>0.6268764</v>
+      </c>
+      <c r="BK7">
+        <v>0.60084884999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1985</v>
       </c>
@@ -937,8 +2089,152 @@
       <c r="O8">
         <v>3.2766699674501001</v>
       </c>
+      <c r="P8">
+        <v>0.59311429999999998</v>
+      </c>
+      <c r="Q8">
+        <v>0.66984259999999995</v>
+      </c>
+      <c r="R8">
+        <v>0.59472764</v>
+      </c>
+      <c r="S8">
+        <v>0.56660736</v>
+      </c>
+      <c r="T8">
+        <v>0.64686330000000003</v>
+      </c>
+      <c r="U8">
+        <v>0.71269654999999998</v>
+      </c>
+      <c r="V8">
+        <v>0.77125394000000003</v>
+      </c>
+      <c r="W8">
+        <v>0.69131284999999998</v>
+      </c>
+      <c r="X8">
+        <v>0.72702699999999998</v>
+      </c>
+      <c r="Y8">
+        <v>0.63265145</v>
+      </c>
+      <c r="Z8">
+        <v>0.77553570000000005</v>
+      </c>
+      <c r="AA8">
+        <v>0.69662999999999997</v>
+      </c>
+      <c r="AB8">
+        <v>0.57328200340270996</v>
+      </c>
+      <c r="AC8">
+        <v>0.48226034641265803</v>
+      </c>
+      <c r="AD8">
+        <v>0.485311329364776</v>
+      </c>
+      <c r="AE8">
+        <v>0.52250170707702603</v>
+      </c>
+      <c r="AF8">
+        <v>0.50192117691039995</v>
+      </c>
+      <c r="AG8">
+        <v>0.43239066004753102</v>
+      </c>
+      <c r="AH8">
+        <v>0.74470466000000002</v>
+      </c>
+      <c r="AI8">
+        <v>0.60917825000000003</v>
+      </c>
+      <c r="AJ8">
+        <v>0.63790654999999996</v>
+      </c>
+      <c r="AK8">
+        <v>0.55354846000000002</v>
+      </c>
+      <c r="AL8">
+        <v>0.72189020000000004</v>
+      </c>
+      <c r="AM8">
+        <v>0.64643395000000003</v>
+      </c>
+      <c r="AN8">
+        <v>0.57429034000000001</v>
+      </c>
+      <c r="AO8">
+        <v>0.55024220000000001</v>
+      </c>
+      <c r="AP8">
+        <v>0.60527295000000003</v>
+      </c>
+      <c r="AQ8">
+        <v>0.54443410000000003</v>
+      </c>
+      <c r="AR8">
+        <v>0.53066444000000002</v>
+      </c>
+      <c r="AS8">
+        <v>0.5068783</v>
+      </c>
+      <c r="AT8">
+        <v>0.64402950000000003</v>
+      </c>
+      <c r="AU8">
+        <v>0.59955000000000003</v>
+      </c>
+      <c r="AV8">
+        <v>0.64675959999999999</v>
+      </c>
+      <c r="AW8">
+        <v>0.64531194999999997</v>
+      </c>
+      <c r="AX8">
+        <v>0.56358540000000001</v>
+      </c>
+      <c r="AY8">
+        <v>0.52121574000000004</v>
+      </c>
+      <c r="AZ8">
+        <v>0.55134130000000003</v>
+      </c>
+      <c r="BA8">
+        <v>0.58257610000000004</v>
+      </c>
+      <c r="BB8">
+        <v>0.59409210000000001</v>
+      </c>
+      <c r="BC8">
+        <v>0.57760805000000004</v>
+      </c>
+      <c r="BD8">
+        <v>0.50687844000000004</v>
+      </c>
+      <c r="BE8">
+        <v>0.49958399999999997</v>
+      </c>
+      <c r="BF8">
+        <v>0.6517712</v>
+      </c>
+      <c r="BG8">
+        <v>0.67754749999999997</v>
+      </c>
+      <c r="BH8">
+        <v>0.64172410000000002</v>
+      </c>
+      <c r="BI8">
+        <v>0.66900753999999996</v>
+      </c>
+      <c r="BJ8">
+        <v>0.60286795999999998</v>
+      </c>
+      <c r="BK8">
+        <v>0.57299069999999996</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1986</v>
       </c>
@@ -984,8 +2280,152 @@
       <c r="O9">
         <v>3.27542603825616</v>
       </c>
+      <c r="P9">
+        <v>0.6292027</v>
+      </c>
+      <c r="Q9">
+        <v>0.70322304999999996</v>
+      </c>
+      <c r="R9">
+        <v>0.62495875000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.5617586</v>
+      </c>
+      <c r="T9">
+        <v>0.68239117000000005</v>
+      </c>
+      <c r="U9">
+        <v>0.74013569999999995</v>
+      </c>
+      <c r="V9">
+        <v>0.82931286000000004</v>
+      </c>
+      <c r="W9">
+        <v>0.77267810000000003</v>
+      </c>
+      <c r="X9">
+        <v>0.78303206000000003</v>
+      </c>
+      <c r="Y9">
+        <v>0.72070129999999999</v>
+      </c>
+      <c r="Z9">
+        <v>0.78024950000000004</v>
+      </c>
+      <c r="AA9">
+        <v>0.72001409999999999</v>
+      </c>
+      <c r="AB9">
+        <v>0.637958765029907</v>
+      </c>
+      <c r="AC9">
+        <v>0.51504451036453203</v>
+      </c>
+      <c r="AD9">
+        <v>0.52977442741393999</v>
+      </c>
+      <c r="AE9">
+        <v>0.53832507133483798</v>
+      </c>
+      <c r="AF9">
+        <v>0.59271681308746305</v>
+      </c>
+      <c r="AG9">
+        <v>0.542347252368927</v>
+      </c>
+      <c r="AH9">
+        <v>0.62822496999999999</v>
+      </c>
+      <c r="AI9">
+        <v>0.51149389999999995</v>
+      </c>
+      <c r="AJ9">
+        <v>0.51956146999999997</v>
+      </c>
+      <c r="AK9">
+        <v>0.48741793999999999</v>
+      </c>
+      <c r="AL9">
+        <v>0.61583483000000006</v>
+      </c>
+      <c r="AM9">
+        <v>0.56664336000000004</v>
+      </c>
+      <c r="AN9">
+        <v>0.57135720000000001</v>
+      </c>
+      <c r="AO9">
+        <v>0.51584850000000004</v>
+      </c>
+      <c r="AP9">
+        <v>0.58740144999999999</v>
+      </c>
+      <c r="AQ9">
+        <v>0.5424291</v>
+      </c>
+      <c r="AR9">
+        <v>0.52049880000000004</v>
+      </c>
+      <c r="AS9">
+        <v>0.50082886000000004</v>
+      </c>
+      <c r="AT9">
+        <v>0.64019537000000004</v>
+      </c>
+      <c r="AU9">
+        <v>0.59340230000000005</v>
+      </c>
+      <c r="AV9">
+        <v>0.62947010000000003</v>
+      </c>
+      <c r="AW9">
+        <v>0.62872576999999996</v>
+      </c>
+      <c r="AX9">
+        <v>0.55608153000000005</v>
+      </c>
+      <c r="AY9">
+        <v>0.51868369999999997</v>
+      </c>
+      <c r="AZ9">
+        <v>0.56983125000000001</v>
+      </c>
+      <c r="BA9">
+        <v>0.59730050000000001</v>
+      </c>
+      <c r="BB9">
+        <v>0.61720870000000005</v>
+      </c>
+      <c r="BC9">
+        <v>0.59358940000000004</v>
+      </c>
+      <c r="BD9">
+        <v>0.52439254999999996</v>
+      </c>
+      <c r="BE9">
+        <v>0.51949774999999998</v>
+      </c>
+      <c r="BF9">
+        <v>0.61382305999999998</v>
+      </c>
+      <c r="BG9">
+        <v>0.59806599999999999</v>
+      </c>
+      <c r="BH9">
+        <v>0.60047130000000004</v>
+      </c>
+      <c r="BI9">
+        <v>0.61386704000000003</v>
+      </c>
+      <c r="BJ9">
+        <v>0.54950010000000005</v>
+      </c>
+      <c r="BK9">
+        <v>0.51557540000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1987</v>
       </c>
@@ -1031,8 +2471,152 @@
       <c r="O10">
         <v>3.3159297597400501</v>
       </c>
+      <c r="P10">
+        <v>0.61325839999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.69525563999999995</v>
+      </c>
+      <c r="R10">
+        <v>0.62872459999999997</v>
+      </c>
+      <c r="S10">
+        <v>0.56408524999999998</v>
+      </c>
+      <c r="T10">
+        <v>0.67855240000000006</v>
+      </c>
+      <c r="U10">
+        <v>0.73584455000000004</v>
+      </c>
+      <c r="V10">
+        <v>0.79738724000000005</v>
+      </c>
+      <c r="W10">
+        <v>0.80509465999999996</v>
+      </c>
+      <c r="X10">
+        <v>0.78733385</v>
+      </c>
+      <c r="Y10">
+        <v>0.72276870000000004</v>
+      </c>
+      <c r="Z10">
+        <v>0.81749594000000003</v>
+      </c>
+      <c r="AA10">
+        <v>0.80064630000000003</v>
+      </c>
+      <c r="AB10">
+        <v>0.61088740825652998</v>
+      </c>
+      <c r="AC10">
+        <v>0.48125427961349398</v>
+      </c>
+      <c r="AD10">
+        <v>0.50453078746795599</v>
+      </c>
+      <c r="AE10">
+        <v>0.50877010822296098</v>
+      </c>
+      <c r="AF10">
+        <v>0.54848718643188399</v>
+      </c>
+      <c r="AG10">
+        <v>0.49739831686019897</v>
+      </c>
+      <c r="AH10">
+        <v>0.65598920000000005</v>
+      </c>
+      <c r="AI10">
+        <v>0.50621444000000004</v>
+      </c>
+      <c r="AJ10">
+        <v>0.53847086</v>
+      </c>
+      <c r="AK10">
+        <v>0.46683010000000003</v>
+      </c>
+      <c r="AL10">
+        <v>0.59951734999999995</v>
+      </c>
+      <c r="AM10">
+        <v>0.57303210000000004</v>
+      </c>
+      <c r="AN10">
+        <v>0.55141949999999995</v>
+      </c>
+      <c r="AO10">
+        <v>0.54050743999999995</v>
+      </c>
+      <c r="AP10">
+        <v>0.59157170000000003</v>
+      </c>
+      <c r="AQ10">
+        <v>0.52632489999999998</v>
+      </c>
+      <c r="AR10">
+        <v>0.51316439999999997</v>
+      </c>
+      <c r="AS10">
+        <v>0.49318960000000001</v>
+      </c>
+      <c r="AT10">
+        <v>0.65254279999999998</v>
+      </c>
+      <c r="AU10">
+        <v>0.62111234999999998</v>
+      </c>
+      <c r="AV10">
+        <v>0.67014099999999999</v>
+      </c>
+      <c r="AW10">
+        <v>0.65479330000000002</v>
+      </c>
+      <c r="AX10">
+        <v>0.56562935999999997</v>
+      </c>
+      <c r="AY10">
+        <v>0.51766000000000001</v>
+      </c>
+      <c r="AZ10">
+        <v>0.57231949999999998</v>
+      </c>
+      <c r="BA10">
+        <v>0.62523143999999997</v>
+      </c>
+      <c r="BB10">
+        <v>0.63174145999999998</v>
+      </c>
+      <c r="BC10">
+        <v>0.60788140000000002</v>
+      </c>
+      <c r="BD10">
+        <v>0.52313834000000003</v>
+      </c>
+      <c r="BE10">
+        <v>0.51991759999999998</v>
+      </c>
+      <c r="BF10">
+        <v>0.65272669999999999</v>
+      </c>
+      <c r="BG10">
+        <v>0.67743754</v>
+      </c>
+      <c r="BH10">
+        <v>0.66116810000000004</v>
+      </c>
+      <c r="BI10">
+        <v>0.67867946999999995</v>
+      </c>
+      <c r="BJ10">
+        <v>0.57288989999999995</v>
+      </c>
+      <c r="BK10">
+        <v>0.56050239999999996</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1988</v>
       </c>
@@ -1078,8 +2662,152 @@
       <c r="O11">
         <v>3.3627797392838001</v>
       </c>
+      <c r="P11">
+        <v>0.64302700000000002</v>
+      </c>
+      <c r="Q11">
+        <v>0.70447683000000005</v>
+      </c>
+      <c r="R11">
+        <v>0.65974116000000005</v>
+      </c>
+      <c r="S11">
+        <v>0.59676284000000002</v>
+      </c>
+      <c r="T11">
+        <v>0.69671810000000001</v>
+      </c>
+      <c r="U11">
+        <v>0.75659169999999998</v>
+      </c>
+      <c r="V11">
+        <v>0.79811989999999999</v>
+      </c>
+      <c r="W11">
+        <v>0.72821736000000004</v>
+      </c>
+      <c r="X11">
+        <v>0.76488566000000002</v>
+      </c>
+      <c r="Y11">
+        <v>0.69792986000000001</v>
+      </c>
+      <c r="Z11">
+        <v>0.82895070000000004</v>
+      </c>
+      <c r="AA11">
+        <v>0.75850119999999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.65093922615051203</v>
+      </c>
+      <c r="AC11">
+        <v>0.53584170341491699</v>
+      </c>
+      <c r="AD11">
+        <v>0.51842570304870605</v>
+      </c>
+      <c r="AE11">
+        <v>0.53954654932022095</v>
+      </c>
+      <c r="AF11">
+        <v>0.59069949388503995</v>
+      </c>
+      <c r="AG11">
+        <v>0.52103841304778997</v>
+      </c>
+      <c r="AH11">
+        <v>0.66852460000000002</v>
+      </c>
+      <c r="AI11">
+        <v>0.53917510000000002</v>
+      </c>
+      <c r="AJ11">
+        <v>0.54808840000000003</v>
+      </c>
+      <c r="AK11">
+        <v>0.47466373000000001</v>
+      </c>
+      <c r="AL11">
+        <v>0.64066624999999999</v>
+      </c>
+      <c r="AM11">
+        <v>0.59507275000000004</v>
+      </c>
+      <c r="AN11">
+        <v>0.55036879999999999</v>
+      </c>
+      <c r="AO11">
+        <v>0.53813469999999997</v>
+      </c>
+      <c r="AP11">
+        <v>0.60022569999999997</v>
+      </c>
+      <c r="AQ11">
+        <v>0.52843280000000004</v>
+      </c>
+      <c r="AR11">
+        <v>0.52149619999999997</v>
+      </c>
+      <c r="AS11">
+        <v>0.53492200000000001</v>
+      </c>
+      <c r="AT11">
+        <v>0.63277879999999997</v>
+      </c>
+      <c r="AU11">
+        <v>0.59500927000000003</v>
+      </c>
+      <c r="AV11">
+        <v>0.63862490000000005</v>
+      </c>
+      <c r="AW11">
+        <v>0.62018379999999995</v>
+      </c>
+      <c r="AX11">
+        <v>0.57910264</v>
+      </c>
+      <c r="AY11">
+        <v>0.54575574000000004</v>
+      </c>
+      <c r="AZ11">
+        <v>0.55858160000000001</v>
+      </c>
+      <c r="BA11">
+        <v>0.5938717</v>
+      </c>
+      <c r="BB11">
+        <v>0.61099935000000005</v>
+      </c>
+      <c r="BC11">
+        <v>0.57649839999999997</v>
+      </c>
+      <c r="BD11">
+        <v>0.53241810000000001</v>
+      </c>
+      <c r="BE11">
+        <v>0.52494823999999995</v>
+      </c>
+      <c r="BF11">
+        <v>0.64428319999999994</v>
+      </c>
+      <c r="BG11">
+        <v>0.65265644</v>
+      </c>
+      <c r="BH11">
+        <v>0.63567375999999998</v>
+      </c>
+      <c r="BI11">
+        <v>0.66241883999999995</v>
+      </c>
+      <c r="BJ11">
+        <v>0.58565330000000004</v>
+      </c>
+      <c r="BK11">
+        <v>0.55269544999999998</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1989</v>
       </c>
@@ -1125,8 +2853,152 @@
       <c r="O12">
         <v>3.2738417438223202</v>
       </c>
+      <c r="P12">
+        <v>0.64897819999999995</v>
+      </c>
+      <c r="Q12">
+        <v>0.71438230000000003</v>
+      </c>
+      <c r="R12">
+        <v>0.64165450000000002</v>
+      </c>
+      <c r="S12">
+        <v>0.58477204999999999</v>
+      </c>
+      <c r="T12">
+        <v>0.68913983999999995</v>
+      </c>
+      <c r="U12">
+        <v>0.74626225000000002</v>
+      </c>
+      <c r="V12">
+        <v>0.77719190000000005</v>
+      </c>
+      <c r="W12">
+        <v>0.71422666000000001</v>
+      </c>
+      <c r="X12">
+        <v>0.72323490000000001</v>
+      </c>
+      <c r="Y12">
+        <v>0.66227347000000003</v>
+      </c>
+      <c r="Z12">
+        <v>0.80740385999999997</v>
+      </c>
+      <c r="AA12">
+        <v>0.73003090000000004</v>
+      </c>
+      <c r="AB12">
+        <v>0.58456039428710904</v>
+      </c>
+      <c r="AC12">
+        <v>0.51635366678237904</v>
+      </c>
+      <c r="AD12">
+        <v>0.47275960445403997</v>
+      </c>
+      <c r="AE12">
+        <v>0.50295609235763505</v>
+      </c>
+      <c r="AF12">
+        <v>0.53917753696441595</v>
+      </c>
+      <c r="AG12">
+        <v>0.49546748399734403</v>
+      </c>
+      <c r="AH12">
+        <v>0.65068029999999999</v>
+      </c>
+      <c r="AI12">
+        <v>0.52390429999999999</v>
+      </c>
+      <c r="AJ12">
+        <v>0.5698223</v>
+      </c>
+      <c r="AK12">
+        <v>0.50978493999999996</v>
+      </c>
+      <c r="AL12">
+        <v>0.60050510000000001</v>
+      </c>
+      <c r="AM12">
+        <v>0.59561293999999998</v>
+      </c>
+      <c r="AN12">
+        <v>0.55360054999999997</v>
+      </c>
+      <c r="AO12">
+        <v>0.54989445000000003</v>
+      </c>
+      <c r="AP12">
+        <v>0.59003304999999995</v>
+      </c>
+      <c r="AQ12">
+        <v>0.53844539999999996</v>
+      </c>
+      <c r="AR12">
+        <v>0.51109340000000003</v>
+      </c>
+      <c r="AS12">
+        <v>0.51790833000000003</v>
+      </c>
+      <c r="AT12">
+        <v>0.62418470000000004</v>
+      </c>
+      <c r="AU12">
+        <v>0.60085917</v>
+      </c>
+      <c r="AV12">
+        <v>0.61447750000000001</v>
+      </c>
+      <c r="AW12">
+        <v>0.60387959999999996</v>
+      </c>
+      <c r="AX12">
+        <v>0.52926280000000003</v>
+      </c>
+      <c r="AY12">
+        <v>0.51650980000000002</v>
+      </c>
+      <c r="AZ12">
+        <v>0.53270525000000002</v>
+      </c>
+      <c r="BA12">
+        <v>0.58354919999999999</v>
+      </c>
+      <c r="BB12">
+        <v>0.59209913000000003</v>
+      </c>
+      <c r="BC12">
+        <v>0.57516617000000003</v>
+      </c>
+      <c r="BD12">
+        <v>0.48854510000000001</v>
+      </c>
+      <c r="BE12">
+        <v>0.48655530000000002</v>
+      </c>
+      <c r="BF12">
+        <v>0.6926677</v>
+      </c>
+      <c r="BG12">
+        <v>0.70301689999999994</v>
+      </c>
+      <c r="BH12">
+        <v>0.69118970000000002</v>
+      </c>
+      <c r="BI12">
+        <v>0.70540060000000004</v>
+      </c>
+      <c r="BJ12">
+        <v>0.59876799999999997</v>
+      </c>
+      <c r="BK12">
+        <v>0.59552139999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1990</v>
       </c>
@@ -1172,8 +3044,152 @@
       <c r="O13">
         <v>3.2425623674650601</v>
       </c>
+      <c r="P13">
+        <v>0.70444289999999998</v>
+      </c>
+      <c r="Q13">
+        <v>0.71632779999999996</v>
+      </c>
+      <c r="R13">
+        <v>0.69019949999999997</v>
+      </c>
+      <c r="S13">
+        <v>0.60456350000000003</v>
+      </c>
+      <c r="T13">
+        <v>0.7361299</v>
+      </c>
+      <c r="U13">
+        <v>0.77414240000000001</v>
+      </c>
+      <c r="V13">
+        <v>0.70068836000000001</v>
+      </c>
+      <c r="W13">
+        <v>0.64265439999999996</v>
+      </c>
+      <c r="X13">
+        <v>0.68297969999999997</v>
+      </c>
+      <c r="Y13">
+        <v>0.60207619999999995</v>
+      </c>
+      <c r="Z13">
+        <v>0.72189689999999995</v>
+      </c>
+      <c r="AA13">
+        <v>0.66275470000000003</v>
+      </c>
+      <c r="AB13">
+        <v>0.64428639411926203</v>
+      </c>
+      <c r="AC13">
+        <v>0.57044863700866699</v>
+      </c>
+      <c r="AD13">
+        <v>0.50981384515762296</v>
+      </c>
+      <c r="AE13">
+        <v>0.54092800617217995</v>
+      </c>
+      <c r="AF13">
+        <v>0.56424069404601995</v>
+      </c>
+      <c r="AG13">
+        <v>0.491685360670089</v>
+      </c>
+      <c r="AH13">
+        <v>0.71348489999999998</v>
+      </c>
+      <c r="AI13">
+        <v>0.58063114000000005</v>
+      </c>
+      <c r="AJ13">
+        <v>0.60655210000000004</v>
+      </c>
+      <c r="AK13">
+        <v>0.50165219999999999</v>
+      </c>
+      <c r="AL13">
+        <v>0.66101299999999996</v>
+      </c>
+      <c r="AM13">
+        <v>0.63967483999999997</v>
+      </c>
+      <c r="AN13">
+        <v>0.52480249999999995</v>
+      </c>
+      <c r="AO13">
+        <v>0.53300243999999997</v>
+      </c>
+      <c r="AP13">
+        <v>0.57350789999999996</v>
+      </c>
+      <c r="AQ13">
+        <v>0.53168249999999995</v>
+      </c>
+      <c r="AR13">
+        <v>0.4875872</v>
+      </c>
+      <c r="AS13">
+        <v>0.49014560000000001</v>
+      </c>
+      <c r="AT13">
+        <v>0.63612115000000002</v>
+      </c>
+      <c r="AU13">
+        <v>0.61349609999999999</v>
+      </c>
+      <c r="AV13">
+        <v>0.63738379999999994</v>
+      </c>
+      <c r="AW13">
+        <v>0.62378036999999997</v>
+      </c>
+      <c r="AX13">
+        <v>0.56106219999999996</v>
+      </c>
+      <c r="AY13">
+        <v>0.55313159999999995</v>
+      </c>
+      <c r="AZ13">
+        <v>0.52712099999999995</v>
+      </c>
+      <c r="BA13">
+        <v>0.59416400000000003</v>
+      </c>
+      <c r="BB13">
+        <v>0.59272784000000001</v>
+      </c>
+      <c r="BC13">
+        <v>0.57063483999999998</v>
+      </c>
+      <c r="BD13">
+        <v>0.5010656</v>
+      </c>
+      <c r="BE13">
+        <v>0.49103943</v>
+      </c>
+      <c r="BF13">
+        <v>0.70486749999999998</v>
+      </c>
+      <c r="BG13">
+        <v>0.75295513999999997</v>
+      </c>
+      <c r="BH13">
+        <v>0.71467950000000002</v>
+      </c>
+      <c r="BI13">
+        <v>0.73365796000000005</v>
+      </c>
+      <c r="BJ13">
+        <v>0.64056820000000003</v>
+      </c>
+      <c r="BK13">
+        <v>0.6459203</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1991</v>
       </c>
@@ -1219,8 +3235,152 @@
       <c r="O14">
         <v>3.22406168874857</v>
       </c>
+      <c r="P14">
+        <v>0.64560530000000005</v>
+      </c>
+      <c r="Q14">
+        <v>0.71018890000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.63759960000000004</v>
+      </c>
+      <c r="S14">
+        <v>0.58012459999999999</v>
+      </c>
+      <c r="T14">
+        <v>0.69670904</v>
+      </c>
+      <c r="U14">
+        <v>0.71967524000000005</v>
+      </c>
+      <c r="V14">
+        <v>0.69918550000000002</v>
+      </c>
+      <c r="W14">
+        <v>0.64793014999999998</v>
+      </c>
+      <c r="X14">
+        <v>0.71091400000000005</v>
+      </c>
+      <c r="Y14">
+        <v>0.62060999999999999</v>
+      </c>
+      <c r="Z14">
+        <v>0.74356290000000003</v>
+      </c>
+      <c r="AA14">
+        <v>0.66240730000000003</v>
+      </c>
+      <c r="AB14">
+        <v>0.59292817115783603</v>
+      </c>
+      <c r="AC14">
+        <v>0.498513042926788</v>
+      </c>
+      <c r="AD14">
+        <v>0.49943432211875899</v>
+      </c>
+      <c r="AE14">
+        <v>0.52045977115631104</v>
+      </c>
+      <c r="AF14">
+        <v>0.57528704404830899</v>
+      </c>
+      <c r="AG14">
+        <v>0.50660586357116699</v>
+      </c>
+      <c r="AH14">
+        <v>0.6498197</v>
+      </c>
+      <c r="AI14">
+        <v>0.52751150000000002</v>
+      </c>
+      <c r="AJ14">
+        <v>0.54771113000000005</v>
+      </c>
+      <c r="AK14">
+        <v>0.48681091999999998</v>
+      </c>
+      <c r="AL14">
+        <v>0.56573116999999995</v>
+      </c>
+      <c r="AM14">
+        <v>0.53436530000000004</v>
+      </c>
+      <c r="AN14">
+        <v>0.5530081</v>
+      </c>
+      <c r="AO14">
+        <v>0.57253385000000001</v>
+      </c>
+      <c r="AP14">
+        <v>0.59375800000000001</v>
+      </c>
+      <c r="AQ14">
+        <v>0.56393910000000003</v>
+      </c>
+      <c r="AR14">
+        <v>0.52426492999999996</v>
+      </c>
+      <c r="AS14">
+        <v>0.51696140000000002</v>
+      </c>
+      <c r="AT14">
+        <v>0.62910219999999994</v>
+      </c>
+      <c r="AU14">
+        <v>0.62298070000000005</v>
+      </c>
+      <c r="AV14">
+        <v>0.64296989999999998</v>
+      </c>
+      <c r="AW14">
+        <v>0.62786907000000003</v>
+      </c>
+      <c r="AX14">
+        <v>0.58883390000000002</v>
+      </c>
+      <c r="AY14">
+        <v>0.56703930000000002</v>
+      </c>
+      <c r="AZ14">
+        <v>0.5188104</v>
+      </c>
+      <c r="BA14">
+        <v>0.58268120000000001</v>
+      </c>
+      <c r="BB14">
+        <v>0.58724759999999998</v>
+      </c>
+      <c r="BC14">
+        <v>0.56812430000000003</v>
+      </c>
+      <c r="BD14">
+        <v>0.50998399999999999</v>
+      </c>
+      <c r="BE14">
+        <v>0.51852434999999997</v>
+      </c>
+      <c r="BF14">
+        <v>0.68097459999999999</v>
+      </c>
+      <c r="BG14">
+        <v>0.70293280000000002</v>
+      </c>
+      <c r="BH14">
+        <v>0.66812824999999998</v>
+      </c>
+      <c r="BI14">
+        <v>0.69223433999999995</v>
+      </c>
+      <c r="BJ14">
+        <v>0.61068224999999998</v>
+      </c>
+      <c r="BK14">
+        <v>0.57616966999999997</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1992</v>
       </c>
@@ -1266,8 +3426,152 @@
       <c r="O15">
         <v>3.2247845855624502</v>
       </c>
+      <c r="P15">
+        <v>0.69423650000000003</v>
+      </c>
+      <c r="Q15">
+        <v>0.76000047000000004</v>
+      </c>
+      <c r="R15">
+        <v>0.65801036000000002</v>
+      </c>
+      <c r="S15">
+        <v>0.61701894000000002</v>
+      </c>
+      <c r="T15">
+        <v>0.72858869999999998</v>
+      </c>
+      <c r="U15">
+        <v>0.76581544000000001</v>
+      </c>
+      <c r="V15">
+        <v>0.81628524999999996</v>
+      </c>
+      <c r="W15">
+        <v>0.73621599999999998</v>
+      </c>
+      <c r="X15">
+        <v>0.76494395999999998</v>
+      </c>
+      <c r="Y15">
+        <v>0.69369506999999997</v>
+      </c>
+      <c r="Z15">
+        <v>0.85361030000000004</v>
+      </c>
+      <c r="AA15">
+        <v>0.75784309999999999</v>
+      </c>
+      <c r="AB15">
+        <v>0.64328074455261197</v>
+      </c>
+      <c r="AC15">
+        <v>0.55396878719329801</v>
+      </c>
+      <c r="AD15">
+        <v>0.54337167739868097</v>
+      </c>
+      <c r="AE15">
+        <v>0.53641498088836603</v>
+      </c>
+      <c r="AF15">
+        <v>0.60728120803832997</v>
+      </c>
+      <c r="AG15">
+        <v>0.55036258697509699</v>
+      </c>
+      <c r="AH15">
+        <v>0.71705054999999995</v>
+      </c>
+      <c r="AI15">
+        <v>0.58628139999999995</v>
+      </c>
+      <c r="AJ15">
+        <v>0.60215735000000004</v>
+      </c>
+      <c r="AK15">
+        <v>0.52634585</v>
+      </c>
+      <c r="AL15">
+        <v>0.66540500000000002</v>
+      </c>
+      <c r="AM15">
+        <v>0.63936389999999999</v>
+      </c>
+      <c r="AN15">
+        <v>0.54184719999999997</v>
+      </c>
+      <c r="AO15">
+        <v>0.54718920000000004</v>
+      </c>
+      <c r="AP15">
+        <v>0.58332634000000005</v>
+      </c>
+      <c r="AQ15">
+        <v>0.53776330000000006</v>
+      </c>
+      <c r="AR15">
+        <v>0.50910467000000004</v>
+      </c>
+      <c r="AS15">
+        <v>0.50093067000000002</v>
+      </c>
+      <c r="AT15">
+        <v>0.70362234000000001</v>
+      </c>
+      <c r="AU15">
+        <v>0.68721399999999999</v>
+      </c>
+      <c r="AV15">
+        <v>0.67537060000000004</v>
+      </c>
+      <c r="AW15">
+        <v>0.67690620000000001</v>
+      </c>
+      <c r="AX15">
+        <v>0.6282586</v>
+      </c>
+      <c r="AY15">
+        <v>0.60193384000000005</v>
+      </c>
+      <c r="AZ15">
+        <v>0.51747739999999998</v>
+      </c>
+      <c r="BA15">
+        <v>0.59606146999999998</v>
+      </c>
+      <c r="BB15">
+        <v>0.58351505000000004</v>
+      </c>
+      <c r="BC15">
+        <v>0.56659435999999996</v>
+      </c>
+      <c r="BD15">
+        <v>0.49232506999999998</v>
+      </c>
+      <c r="BE15">
+        <v>0.51966420000000002</v>
+      </c>
+      <c r="BF15">
+        <v>0.7130995</v>
+      </c>
+      <c r="BG15">
+        <v>0.73382879999999995</v>
+      </c>
+      <c r="BH15">
+        <v>0.70624969999999998</v>
+      </c>
+      <c r="BI15">
+        <v>0.70591199999999998</v>
+      </c>
+      <c r="BJ15">
+        <v>0.61848899999999996</v>
+      </c>
+      <c r="BK15">
+        <v>0.62504053000000004</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1993</v>
       </c>
@@ -1313,8 +3617,152 @@
       <c r="O16">
         <v>3.2982456400105802</v>
       </c>
+      <c r="P16">
+        <v>0.66569440000000002</v>
+      </c>
+      <c r="Q16">
+        <v>0.751552</v>
+      </c>
+      <c r="R16">
+        <v>0.70510700000000004</v>
+      </c>
+      <c r="S16">
+        <v>0.6394396</v>
+      </c>
+      <c r="T16">
+        <v>0.70473589999999997</v>
+      </c>
+      <c r="U16">
+        <v>0.75880444000000002</v>
+      </c>
+      <c r="V16">
+        <v>0.7285857</v>
+      </c>
+      <c r="W16">
+        <v>0.65657352999999996</v>
+      </c>
+      <c r="X16">
+        <v>0.73284316000000005</v>
+      </c>
+      <c r="Y16">
+        <v>0.63874280000000005</v>
+      </c>
+      <c r="Z16">
+        <v>0.77787799999999996</v>
+      </c>
+      <c r="AA16">
+        <v>0.72208273000000001</v>
+      </c>
+      <c r="AB16">
+        <v>0.64123654365539495</v>
+      </c>
+      <c r="AC16">
+        <v>0.57118231058120705</v>
+      </c>
+      <c r="AD16">
+        <v>0.52179592847824097</v>
+      </c>
+      <c r="AE16">
+        <v>0.57147943973541204</v>
+      </c>
+      <c r="AF16">
+        <v>0.54134690761566095</v>
+      </c>
+      <c r="AG16">
+        <v>0.490764319896698</v>
+      </c>
+      <c r="AH16">
+        <v>0.74747205000000005</v>
+      </c>
+      <c r="AI16">
+        <v>0.58956660000000005</v>
+      </c>
+      <c r="AJ16">
+        <v>0.64554787000000002</v>
+      </c>
+      <c r="AK16">
+        <v>0.56924629999999998</v>
+      </c>
+      <c r="AL16">
+        <v>0.70045349999999995</v>
+      </c>
+      <c r="AM16">
+        <v>0.6310519</v>
+      </c>
+      <c r="AN16">
+        <v>0.58072800000000002</v>
+      </c>
+      <c r="AO16">
+        <v>0.57366145000000002</v>
+      </c>
+      <c r="AP16">
+        <v>0.61170137000000002</v>
+      </c>
+      <c r="AQ16">
+        <v>0.58342070000000001</v>
+      </c>
+      <c r="AR16">
+        <v>0.54642044999999995</v>
+      </c>
+      <c r="AS16">
+        <v>0.52312493000000004</v>
+      </c>
+      <c r="AT16">
+        <v>0.69031180000000003</v>
+      </c>
+      <c r="AU16">
+        <v>0.63349580000000005</v>
+      </c>
+      <c r="AV16">
+        <v>0.6669022</v>
+      </c>
+      <c r="AW16">
+        <v>0.68631549999999997</v>
+      </c>
+      <c r="AX16">
+        <v>0.5995123</v>
+      </c>
+      <c r="AY16">
+        <v>0.51712049999999998</v>
+      </c>
+      <c r="AZ16">
+        <v>0.52627040000000003</v>
+      </c>
+      <c r="BA16">
+        <v>0.59937847</v>
+      </c>
+      <c r="BB16">
+        <v>0.5925802</v>
+      </c>
+      <c r="BC16">
+        <v>0.57629260000000004</v>
+      </c>
+      <c r="BD16">
+        <v>0.49743880000000001</v>
+      </c>
+      <c r="BE16">
+        <v>0.5100808</v>
+      </c>
+      <c r="BF16">
+        <v>0.72102045999999997</v>
+      </c>
+      <c r="BG16">
+        <v>0.71870630000000002</v>
+      </c>
+      <c r="BH16">
+        <v>0.72671103000000004</v>
+      </c>
+      <c r="BI16">
+        <v>0.72965860000000005</v>
+      </c>
+      <c r="BJ16">
+        <v>0.64688473999999996</v>
+      </c>
+      <c r="BK16">
+        <v>0.60813320000000004</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1994</v>
       </c>
@@ -1360,8 +3808,152 @@
       <c r="O17">
         <v>3.3457278738401</v>
       </c>
+      <c r="P17">
+        <v>0.66808190000000001</v>
+      </c>
+      <c r="Q17">
+        <v>0.71519639999999995</v>
+      </c>
+      <c r="R17">
+        <v>0.67375534999999998</v>
+      </c>
+      <c r="S17">
+        <v>0.62224219999999997</v>
+      </c>
+      <c r="T17">
+        <v>0.71475650000000002</v>
+      </c>
+      <c r="U17">
+        <v>0.74673665</v>
+      </c>
+      <c r="V17">
+        <v>0.71810059999999998</v>
+      </c>
+      <c r="W17">
+        <v>0.65364325000000001</v>
+      </c>
+      <c r="X17">
+        <v>0.69893103999999995</v>
+      </c>
+      <c r="Y17">
+        <v>0.58759265999999999</v>
+      </c>
+      <c r="Z17">
+        <v>0.76000833999999995</v>
+      </c>
+      <c r="AA17">
+        <v>0.70992476000000004</v>
+      </c>
+      <c r="AB17">
+        <v>0.576077461242675</v>
+      </c>
+      <c r="AC17">
+        <v>0.470155268907547</v>
+      </c>
+      <c r="AD17">
+        <v>0.49338248372077897</v>
+      </c>
+      <c r="AE17">
+        <v>0.50745213031768799</v>
+      </c>
+      <c r="AF17">
+        <v>0.52089327573776201</v>
+      </c>
+      <c r="AG17">
+        <v>0.46360599994659402</v>
+      </c>
+      <c r="AH17">
+        <v>0.69103150000000002</v>
+      </c>
+      <c r="AI17">
+        <v>0.51999189999999995</v>
+      </c>
+      <c r="AJ17">
+        <v>0.58347212999999998</v>
+      </c>
+      <c r="AK17">
+        <v>0.5239163</v>
+      </c>
+      <c r="AL17">
+        <v>0.61472934000000001</v>
+      </c>
+      <c r="AM17">
+        <v>0.57171000000000005</v>
+      </c>
+      <c r="AN17">
+        <v>0.54996275999999999</v>
+      </c>
+      <c r="AO17">
+        <v>0.55402017000000003</v>
+      </c>
+      <c r="AP17">
+        <v>0.57899339999999999</v>
+      </c>
+      <c r="AQ17">
+        <v>0.52981789999999995</v>
+      </c>
+      <c r="AR17">
+        <v>0.54285704999999995</v>
+      </c>
+      <c r="AS17">
+        <v>0.52550392999999995</v>
+      </c>
+      <c r="AT17">
+        <v>0.68249329999999997</v>
+      </c>
+      <c r="AU17">
+        <v>0.68692120000000001</v>
+      </c>
+      <c r="AV17">
+        <v>0.67694670000000001</v>
+      </c>
+      <c r="AW17">
+        <v>0.66603184000000004</v>
+      </c>
+      <c r="AX17">
+        <v>0.61331999999999998</v>
+      </c>
+      <c r="AY17">
+        <v>0.57994604000000005</v>
+      </c>
+      <c r="AZ17">
+        <v>0.51448022999999998</v>
+      </c>
+      <c r="BA17">
+        <v>0.58107423999999996</v>
+      </c>
+      <c r="BB17">
+        <v>0.56937879999999996</v>
+      </c>
+      <c r="BC17">
+        <v>0.55775523000000005</v>
+      </c>
+      <c r="BD17">
+        <v>0.50120439999999999</v>
+      </c>
+      <c r="BE17">
+        <v>0.50951860000000004</v>
+      </c>
+      <c r="BF17">
+        <v>0.69046269999999998</v>
+      </c>
+      <c r="BG17">
+        <v>0.7138082</v>
+      </c>
+      <c r="BH17">
+        <v>0.70207129999999995</v>
+      </c>
+      <c r="BI17">
+        <v>0.70272420000000002</v>
+      </c>
+      <c r="BJ17">
+        <v>0.62999855999999999</v>
+      </c>
+      <c r="BK17">
+        <v>0.62339690000000003</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1995</v>
       </c>
@@ -1407,8 +3999,152 @@
       <c r="O18">
         <v>3.4646017974757899</v>
       </c>
+      <c r="P18">
+        <v>0.62165879999999996</v>
+      </c>
+      <c r="Q18">
+        <v>0.69018900000000005</v>
+      </c>
+      <c r="R18">
+        <v>0.64116030000000002</v>
+      </c>
+      <c r="S18">
+        <v>0.56905174000000003</v>
+      </c>
+      <c r="T18">
+        <v>0.69554609999999994</v>
+      </c>
+      <c r="U18">
+        <v>0.72277075000000002</v>
+      </c>
+      <c r="V18">
+        <v>0.67057619999999996</v>
+      </c>
+      <c r="W18">
+        <v>0.60311585999999995</v>
+      </c>
+      <c r="X18">
+        <v>0.66496944000000002</v>
+      </c>
+      <c r="Y18">
+        <v>0.57035959999999997</v>
+      </c>
+      <c r="Z18">
+        <v>0.6774888</v>
+      </c>
+      <c r="AA18">
+        <v>0.61588096999999997</v>
+      </c>
+      <c r="AB18">
+        <v>0.678516626358032</v>
+      </c>
+      <c r="AC18">
+        <v>0.53860974311828602</v>
+      </c>
+      <c r="AD18">
+        <v>0.52678036689758301</v>
+      </c>
+      <c r="AE18">
+        <v>0.53234136104583696</v>
+      </c>
+      <c r="AF18">
+        <v>0.62879073619842496</v>
+      </c>
+      <c r="AG18">
+        <v>0.53043246269225997</v>
+      </c>
+      <c r="AH18">
+        <v>0.70637506000000005</v>
+      </c>
+      <c r="AI18">
+        <v>0.56843339999999998</v>
+      </c>
+      <c r="AJ18">
+        <v>0.6029814</v>
+      </c>
+      <c r="AK18">
+        <v>0.49269158000000002</v>
+      </c>
+      <c r="AL18">
+        <v>0.65263665000000004</v>
+      </c>
+      <c r="AM18">
+        <v>0.59372913999999999</v>
+      </c>
+      <c r="AN18">
+        <v>0.50205849999999996</v>
+      </c>
+      <c r="AO18">
+        <v>0.51351080000000004</v>
+      </c>
+      <c r="AP18">
+        <v>0.5505698</v>
+      </c>
+      <c r="AQ18">
+        <v>0.49002410000000002</v>
+      </c>
+      <c r="AR18">
+        <v>0.50342240000000005</v>
+      </c>
+      <c r="AS18">
+        <v>0.49083729999999998</v>
+      </c>
+      <c r="AT18">
+        <v>0.63418269999999999</v>
+      </c>
+      <c r="AU18">
+        <v>0.57194409999999996</v>
+      </c>
+      <c r="AV18">
+        <v>0.63561546999999996</v>
+      </c>
+      <c r="AW18">
+        <v>0.61301130000000004</v>
+      </c>
+      <c r="AX18">
+        <v>0.56676729999999997</v>
+      </c>
+      <c r="AY18">
+        <v>0.493309</v>
+      </c>
+      <c r="AZ18">
+        <v>0.53162134000000005</v>
+      </c>
+      <c r="BA18">
+        <v>0.59133303000000004</v>
+      </c>
+      <c r="BB18">
+        <v>0.58242470000000002</v>
+      </c>
+      <c r="BC18">
+        <v>0.56328224999999998</v>
+      </c>
+      <c r="BD18">
+        <v>0.51143110000000003</v>
+      </c>
+      <c r="BE18">
+        <v>0.50083464</v>
+      </c>
+      <c r="BF18">
+        <v>0.66064920000000005</v>
+      </c>
+      <c r="BG18">
+        <v>0.63341283999999998</v>
+      </c>
+      <c r="BH18">
+        <v>0.61098589999999997</v>
+      </c>
+      <c r="BI18">
+        <v>0.60092102999999997</v>
+      </c>
+      <c r="BJ18">
+        <v>0.58820870000000003</v>
+      </c>
+      <c r="BK18">
+        <v>0.53066599999999997</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1996</v>
       </c>
@@ -1454,8 +4190,152 @@
       <c r="O19">
         <v>3.4416110336862098</v>
       </c>
+      <c r="P19">
+        <v>0.62035689999999999</v>
+      </c>
+      <c r="Q19">
+        <v>0.67115754000000005</v>
+      </c>
+      <c r="R19">
+        <v>0.62903750000000003</v>
+      </c>
+      <c r="S19">
+        <v>0.56945515000000002</v>
+      </c>
+      <c r="T19">
+        <v>0.67147917000000001</v>
+      </c>
+      <c r="U19">
+        <v>0.68848299999999996</v>
+      </c>
+      <c r="V19">
+        <v>0.69925404000000002</v>
+      </c>
+      <c r="W19">
+        <v>0.63983659999999998</v>
+      </c>
+      <c r="X19">
+        <v>0.7048664</v>
+      </c>
+      <c r="Y19">
+        <v>0.58902929999999998</v>
+      </c>
+      <c r="Z19">
+        <v>0.74183434000000004</v>
+      </c>
+      <c r="AA19">
+        <v>0.66301909999999997</v>
+      </c>
+      <c r="AB19">
+        <v>0.68344193696975697</v>
+      </c>
+      <c r="AC19">
+        <v>0.59108138084411599</v>
+      </c>
+      <c r="AD19">
+        <v>0.53694617748260498</v>
+      </c>
+      <c r="AE19">
+        <v>0.55140316486358598</v>
+      </c>
+      <c r="AF19">
+        <v>0.59382104873657204</v>
+      </c>
+      <c r="AG19">
+        <v>0.52192229032516402</v>
+      </c>
+      <c r="AH19">
+        <v>0.64564913999999995</v>
+      </c>
+      <c r="AI19">
+        <v>0.48112956000000001</v>
+      </c>
+      <c r="AJ19">
+        <v>0.51700765000000004</v>
+      </c>
+      <c r="AK19">
+        <v>0.44964979999999999</v>
+      </c>
+      <c r="AL19">
+        <v>0.59235579999999999</v>
+      </c>
+      <c r="AM19">
+        <v>0.52323454999999996</v>
+      </c>
+      <c r="AN19">
+        <v>0.49621074999999998</v>
+      </c>
+      <c r="AO19">
+        <v>0.52152279999999995</v>
+      </c>
+      <c r="AP19">
+        <v>0.54714300000000005</v>
+      </c>
+      <c r="AQ19">
+        <v>0.49863334999999998</v>
+      </c>
+      <c r="AR19">
+        <v>0.50420505000000004</v>
+      </c>
+      <c r="AS19">
+        <v>0.48493557999999998</v>
+      </c>
+      <c r="AT19">
+        <v>0.59309566000000002</v>
+      </c>
+      <c r="AU19">
+        <v>0.5494597</v>
+      </c>
+      <c r="AV19">
+        <v>0.61568420000000001</v>
+      </c>
+      <c r="AW19">
+        <v>0.59913609999999995</v>
+      </c>
+      <c r="AX19">
+        <v>0.54548085000000002</v>
+      </c>
+      <c r="AY19">
+        <v>0.49121943000000001</v>
+      </c>
+      <c r="AZ19">
+        <v>0.50349593000000004</v>
+      </c>
+      <c r="BA19">
+        <v>0.57408530000000002</v>
+      </c>
+      <c r="BB19">
+        <v>0.5793102</v>
+      </c>
+      <c r="BC19">
+        <v>0.57285695999999997</v>
+      </c>
+      <c r="BD19">
+        <v>0.49307737000000001</v>
+      </c>
+      <c r="BE19">
+        <v>0.48591659999999998</v>
+      </c>
+      <c r="BF19">
+        <v>0.62561489999999997</v>
+      </c>
+      <c r="BG19">
+        <v>0.62270879999999995</v>
+      </c>
+      <c r="BH19">
+        <v>0.59140610000000005</v>
+      </c>
+      <c r="BI19">
+        <v>0.59955809999999998</v>
+      </c>
+      <c r="BJ19">
+        <v>0.56731140000000002</v>
+      </c>
+      <c r="BK19">
+        <v>0.51180230000000004</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1997</v>
       </c>
@@ -1501,8 +4381,152 @@
       <c r="O20">
         <v>3.4893736483110001</v>
       </c>
+      <c r="P20">
+        <v>0.63009139999999997</v>
+      </c>
+      <c r="Q20">
+        <v>0.69182719999999998</v>
+      </c>
+      <c r="R20">
+        <v>0.64077293999999996</v>
+      </c>
+      <c r="S20">
+        <v>0.57460856000000005</v>
+      </c>
+      <c r="T20">
+        <v>0.68140244000000005</v>
+      </c>
+      <c r="U20">
+        <v>0.70560619999999996</v>
+      </c>
+      <c r="V20">
+        <v>0.69613619999999998</v>
+      </c>
+      <c r="W20">
+        <v>0.64426090000000003</v>
+      </c>
+      <c r="X20">
+        <v>0.68948936000000005</v>
+      </c>
+      <c r="Y20">
+        <v>0.58287436000000004</v>
+      </c>
+      <c r="Z20">
+        <v>0.71932019999999997</v>
+      </c>
+      <c r="AA20">
+        <v>0.66235756999999995</v>
+      </c>
+      <c r="AB20">
+        <v>0.646897792816162</v>
+      </c>
+      <c r="AC20">
+        <v>0.58427250385284402</v>
+      </c>
+      <c r="AD20">
+        <v>0.50368398427963201</v>
+      </c>
+      <c r="AE20">
+        <v>0.52016711235046298</v>
+      </c>
+      <c r="AF20">
+        <v>0.58530074357986395</v>
+      </c>
+      <c r="AG20">
+        <v>0.49826025962829501</v>
+      </c>
+      <c r="AH20">
+        <v>0.69894946000000002</v>
+      </c>
+      <c r="AI20">
+        <v>0.52339009999999997</v>
+      </c>
+      <c r="AJ20">
+        <v>0.59245800000000004</v>
+      </c>
+      <c r="AK20">
+        <v>0.51754856000000005</v>
+      </c>
+      <c r="AL20">
+        <v>0.61377429999999999</v>
+      </c>
+      <c r="AM20">
+        <v>0.52411870000000005</v>
+      </c>
+      <c r="AN20">
+        <v>0.49210890000000002</v>
+      </c>
+      <c r="AO20">
+        <v>0.49656734000000002</v>
+      </c>
+      <c r="AP20">
+        <v>0.53801847000000003</v>
+      </c>
+      <c r="AQ20">
+        <v>0.50367945000000003</v>
+      </c>
+      <c r="AR20">
+        <v>0.4742787</v>
+      </c>
+      <c r="AS20">
+        <v>0.45954772999999999</v>
+      </c>
+      <c r="AT20">
+        <v>0.67918999999999996</v>
+      </c>
+      <c r="AU20">
+        <v>0.63526539999999998</v>
+      </c>
+      <c r="AV20">
+        <v>0.66685355000000002</v>
+      </c>
+      <c r="AW20">
+        <v>0.64551263999999997</v>
+      </c>
+      <c r="AX20">
+        <v>0.62441029999999997</v>
+      </c>
+      <c r="AY20">
+        <v>0.57390063999999996</v>
+      </c>
+      <c r="AZ20">
+        <v>0.50983630000000002</v>
+      </c>
+      <c r="BA20">
+        <v>0.56654559999999998</v>
+      </c>
+      <c r="BB20">
+        <v>0.57502085000000003</v>
+      </c>
+      <c r="BC20">
+        <v>0.55863786000000004</v>
+      </c>
+      <c r="BD20">
+        <v>0.48612880000000003</v>
+      </c>
+      <c r="BE20">
+        <v>0.47589169999999997</v>
+      </c>
+      <c r="BF20">
+        <v>0.64648134000000002</v>
+      </c>
+      <c r="BG20">
+        <v>0.66075813999999999</v>
+      </c>
+      <c r="BH20">
+        <v>0.60558469999999998</v>
+      </c>
+      <c r="BI20">
+        <v>0.59419759999999999</v>
+      </c>
+      <c r="BJ20">
+        <v>0.58747612999999999</v>
+      </c>
+      <c r="BK20">
+        <v>0.54746974000000004</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1998</v>
       </c>
@@ -1548,8 +4572,152 @@
       <c r="O21">
         <v>3.4043201547761202</v>
       </c>
+      <c r="P21">
+        <v>0.63048976999999995</v>
+      </c>
+      <c r="Q21">
+        <v>0.70535570000000003</v>
+      </c>
+      <c r="R21">
+        <v>0.63985205000000001</v>
+      </c>
+      <c r="S21">
+        <v>0.58359559999999999</v>
+      </c>
+      <c r="T21">
+        <v>0.68042230000000004</v>
+      </c>
+      <c r="U21">
+        <v>0.71374939999999998</v>
+      </c>
+      <c r="V21">
+        <v>0.69016869999999997</v>
+      </c>
+      <c r="W21">
+        <v>0.61508560000000001</v>
+      </c>
+      <c r="X21">
+        <v>0.70190109999999994</v>
+      </c>
+      <c r="Y21">
+        <v>0.58995277000000002</v>
+      </c>
+      <c r="Z21">
+        <v>0.74910140000000003</v>
+      </c>
+      <c r="AA21">
+        <v>0.69402909999999995</v>
+      </c>
+      <c r="AB21">
+        <v>0.60691738128662098</v>
+      </c>
+      <c r="AC21">
+        <v>0.54106485843658403</v>
+      </c>
+      <c r="AD21">
+        <v>0.53478944301605202</v>
+      </c>
+      <c r="AE21">
+        <v>0.555489182472229</v>
+      </c>
+      <c r="AF21">
+        <v>0.559639573097229</v>
+      </c>
+      <c r="AG21">
+        <v>0.50196290016174305</v>
+      </c>
+      <c r="AH21">
+        <v>0.72156536999999998</v>
+      </c>
+      <c r="AI21">
+        <v>0.55255840000000001</v>
+      </c>
+      <c r="AJ21">
+        <v>0.58894813000000001</v>
+      </c>
+      <c r="AK21">
+        <v>0.53107583999999997</v>
+      </c>
+      <c r="AL21">
+        <v>0.66114819999999996</v>
+      </c>
+      <c r="AM21">
+        <v>0.56618259999999998</v>
+      </c>
+      <c r="AN21">
+        <v>0.53353799999999996</v>
+      </c>
+      <c r="AO21">
+        <v>0.53088970000000002</v>
+      </c>
+      <c r="AP21">
+        <v>0.57853189999999999</v>
+      </c>
+      <c r="AQ21">
+        <v>0.52554389999999995</v>
+      </c>
+      <c r="AR21">
+        <v>0.50270749999999997</v>
+      </c>
+      <c r="AS21">
+        <v>0.48915765</v>
+      </c>
+      <c r="AT21">
+        <v>0.65715336999999996</v>
+      </c>
+      <c r="AU21">
+        <v>0.63265309999999997</v>
+      </c>
+      <c r="AV21">
+        <v>0.66669285</v>
+      </c>
+      <c r="AW21">
+        <v>0.65608626999999997</v>
+      </c>
+      <c r="AX21">
+        <v>0.59266649999999998</v>
+      </c>
+      <c r="AY21">
+        <v>0.54675569999999996</v>
+      </c>
+      <c r="AZ21">
+        <v>0.5315898</v>
+      </c>
+      <c r="BA21">
+        <v>0.59147039999999995</v>
+      </c>
+      <c r="BB21">
+        <v>0.58697944999999996</v>
+      </c>
+      <c r="BC21">
+        <v>0.56850780000000001</v>
+      </c>
+      <c r="BD21">
+        <v>0.50748470000000001</v>
+      </c>
+      <c r="BE21">
+        <v>0.50890590000000002</v>
+      </c>
+      <c r="BF21">
+        <v>0.62344235000000003</v>
+      </c>
+      <c r="BG21">
+        <v>0.6187551</v>
+      </c>
+      <c r="BH21">
+        <v>0.61029009999999995</v>
+      </c>
+      <c r="BI21">
+        <v>0.6046686</v>
+      </c>
+      <c r="BJ21">
+        <v>0.57118325999999997</v>
+      </c>
+      <c r="BK21">
+        <v>0.54355399999999998</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1999</v>
       </c>
@@ -1595,8 +4763,152 @@
       <c r="O22">
         <v>3.5494654079805201</v>
       </c>
+      <c r="P22">
+        <v>0.65109074</v>
+      </c>
+      <c r="Q22">
+        <v>0.73126210000000003</v>
+      </c>
+      <c r="R22">
+        <v>0.65584240000000005</v>
+      </c>
+      <c r="S22">
+        <v>0.60788613999999996</v>
+      </c>
+      <c r="T22">
+        <v>0.70035934</v>
+      </c>
+      <c r="U22">
+        <v>0.74158250000000003</v>
+      </c>
+      <c r="V22">
+        <v>0.68358479999999999</v>
+      </c>
+      <c r="W22">
+        <v>0.59123499999999996</v>
+      </c>
+      <c r="X22">
+        <v>0.66642769999999996</v>
+      </c>
+      <c r="Y22">
+        <v>0.58915090000000003</v>
+      </c>
+      <c r="Z22">
+        <v>0.69068830000000003</v>
+      </c>
+      <c r="AA22">
+        <v>0.63034946000000003</v>
+      </c>
+      <c r="AB22">
+        <v>0.60644978284835804</v>
+      </c>
+      <c r="AC22">
+        <v>0.46376535296440102</v>
+      </c>
+      <c r="AD22">
+        <v>0.48607361316680903</v>
+      </c>
+      <c r="AE22">
+        <v>0.496967643499374</v>
+      </c>
+      <c r="AF22">
+        <v>0.52236694097518899</v>
+      </c>
+      <c r="AG22">
+        <v>0.42981064319610501</v>
+      </c>
+      <c r="AH22">
+        <v>0.57994400000000002</v>
+      </c>
+      <c r="AI22">
+        <v>0.43289322000000002</v>
+      </c>
+      <c r="AJ22">
+        <v>0.47653352999999998</v>
+      </c>
+      <c r="AK22">
+        <v>0.45588647999999998</v>
+      </c>
+      <c r="AL22">
+        <v>0.5052316</v>
+      </c>
+      <c r="AM22">
+        <v>0.46163672</v>
+      </c>
+      <c r="AN22">
+        <v>0.491616</v>
+      </c>
+      <c r="AO22">
+        <v>0.51216996000000004</v>
+      </c>
+      <c r="AP22">
+        <v>0.5322751</v>
+      </c>
+      <c r="AQ22">
+        <v>0.49161828000000002</v>
+      </c>
+      <c r="AR22">
+        <v>0.49684313000000002</v>
+      </c>
+      <c r="AS22">
+        <v>0.48195391999999998</v>
+      </c>
+      <c r="AT22">
+        <v>0.66655169999999997</v>
+      </c>
+      <c r="AU22">
+        <v>0.64632369999999995</v>
+      </c>
+      <c r="AV22">
+        <v>0.66238059999999999</v>
+      </c>
+      <c r="AW22">
+        <v>0.63230132999999999</v>
+      </c>
+      <c r="AX22">
+        <v>0.63188610000000001</v>
+      </c>
+      <c r="AY22">
+        <v>0.58697706000000005</v>
+      </c>
+      <c r="AZ22">
+        <v>0.50584589999999996</v>
+      </c>
+      <c r="BA22">
+        <v>0.54333127000000003</v>
+      </c>
+      <c r="BB22">
+        <v>0.55014693999999997</v>
+      </c>
+      <c r="BC22">
+        <v>0.53499220000000003</v>
+      </c>
+      <c r="BD22">
+        <v>0.49651894000000002</v>
+      </c>
+      <c r="BE22">
+        <v>0.48750943000000002</v>
+      </c>
+      <c r="BF22">
+        <v>0.60385860000000002</v>
+      </c>
+      <c r="BG22">
+        <v>0.60506510000000002</v>
+      </c>
+      <c r="BH22">
+        <v>0.59129379999999998</v>
+      </c>
+      <c r="BI22">
+        <v>0.59684294000000004</v>
+      </c>
+      <c r="BJ22">
+        <v>0.55755686999999998</v>
+      </c>
+      <c r="BK22">
+        <v>0.51076365000000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2000</v>
       </c>
@@ -1642,8 +4954,152 @@
       <c r="O23">
         <v>3.4678029502992098</v>
       </c>
+      <c r="P23">
+        <v>0.62737750000000003</v>
+      </c>
+      <c r="Q23">
+        <v>0.66331713999999997</v>
+      </c>
+      <c r="R23">
+        <v>0.6053944</v>
+      </c>
+      <c r="S23">
+        <v>0.52041804999999997</v>
+      </c>
+      <c r="T23">
+        <v>0.66186153999999997</v>
+      </c>
+      <c r="U23">
+        <v>0.68050193999999997</v>
+      </c>
+      <c r="V23">
+        <v>0.70313619999999999</v>
+      </c>
+      <c r="W23">
+        <v>0.65310632999999996</v>
+      </c>
+      <c r="X23">
+        <v>0.69919980000000004</v>
+      </c>
+      <c r="Y23">
+        <v>0.60270800000000002</v>
+      </c>
+      <c r="Z23">
+        <v>0.73586874999999996</v>
+      </c>
+      <c r="AA23">
+        <v>0.67784065000000004</v>
+      </c>
+      <c r="AB23">
+        <v>0.70731449127197199</v>
+      </c>
+      <c r="AC23">
+        <v>0.568365037441253</v>
+      </c>
+      <c r="AD23">
+        <v>0.56941056251525801</v>
+      </c>
+      <c r="AE23">
+        <v>0.55773562192916804</v>
+      </c>
+      <c r="AF23">
+        <v>0.65433186292648304</v>
+      </c>
+      <c r="AG23">
+        <v>0.55360960960388095</v>
+      </c>
+      <c r="AH23">
+        <v>0.59168120000000002</v>
+      </c>
+      <c r="AI23">
+        <v>0.44733623</v>
+      </c>
+      <c r="AJ23">
+        <v>0.48187165999999998</v>
+      </c>
+      <c r="AK23">
+        <v>0.44288832</v>
+      </c>
+      <c r="AL23">
+        <v>0.52508783000000003</v>
+      </c>
+      <c r="AM23">
+        <v>0.46546566</v>
+      </c>
+      <c r="AN23">
+        <v>0.49192685000000003</v>
+      </c>
+      <c r="AO23">
+        <v>0.51120555000000001</v>
+      </c>
+      <c r="AP23">
+        <v>0.55887394999999995</v>
+      </c>
+      <c r="AQ23">
+        <v>0.50164629999999999</v>
+      </c>
+      <c r="AR23">
+        <v>0.50671184000000002</v>
+      </c>
+      <c r="AS23">
+        <v>0.47892266999999999</v>
+      </c>
+      <c r="AT23">
+        <v>0.65926989999999996</v>
+      </c>
+      <c r="AU23">
+        <v>0.63385499999999995</v>
+      </c>
+      <c r="AV23">
+        <v>0.65660130000000005</v>
+      </c>
+      <c r="AW23">
+        <v>0.59435976000000001</v>
+      </c>
+      <c r="AX23">
+        <v>0.62230890000000005</v>
+      </c>
+      <c r="AY23">
+        <v>0.53936850000000003</v>
+      </c>
+      <c r="AZ23">
+        <v>0.51546437000000001</v>
+      </c>
+      <c r="BA23">
+        <v>0.55961585000000003</v>
+      </c>
+      <c r="BB23">
+        <v>0.57643705999999995</v>
+      </c>
+      <c r="BC23">
+        <v>0.55325820000000003</v>
+      </c>
+      <c r="BD23">
+        <v>0.50082340000000003</v>
+      </c>
+      <c r="BE23">
+        <v>0.48841888</v>
+      </c>
+      <c r="BF23">
+        <v>0.59195333999999999</v>
+      </c>
+      <c r="BG23">
+        <v>0.57750285000000001</v>
+      </c>
+      <c r="BH23">
+        <v>0.60026979999999996</v>
+      </c>
+      <c r="BI23">
+        <v>0.58680487000000003</v>
+      </c>
+      <c r="BJ23">
+        <v>0.55288744000000001</v>
+      </c>
+      <c r="BK23">
+        <v>0.50931800000000005</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -1689,8 +5145,152 @@
       <c r="O24">
         <v>3.4883632133972302</v>
       </c>
+      <c r="P24">
+        <v>0.65243099999999998</v>
+      </c>
+      <c r="Q24">
+        <v>0.70569159999999997</v>
+      </c>
+      <c r="R24">
+        <v>0.66930020000000001</v>
+      </c>
+      <c r="S24">
+        <v>0.56360750000000004</v>
+      </c>
+      <c r="T24">
+        <v>0.69001199999999996</v>
+      </c>
+      <c r="U24">
+        <v>0.70744280000000004</v>
+      </c>
+      <c r="V24">
+        <v>0.71550159999999996</v>
+      </c>
+      <c r="W24">
+        <v>0.64943090000000003</v>
+      </c>
+      <c r="X24">
+        <v>0.71091413000000003</v>
+      </c>
+      <c r="Y24">
+        <v>0.61428400000000005</v>
+      </c>
+      <c r="Z24">
+        <v>0.74908494999999997</v>
+      </c>
+      <c r="AA24">
+        <v>0.68293029999999999</v>
+      </c>
+      <c r="AB24">
+        <v>0.68748921155929499</v>
+      </c>
+      <c r="AC24">
+        <v>0.58940327167510898</v>
+      </c>
+      <c r="AD24">
+        <v>0.586844801902771</v>
+      </c>
+      <c r="AE24">
+        <v>0.56874096393585205</v>
+      </c>
+      <c r="AF24">
+        <v>0.62350916862487704</v>
+      </c>
+      <c r="AG24">
+        <v>0.52858090400695801</v>
+      </c>
+      <c r="AH24">
+        <v>0.72274494</v>
+      </c>
+      <c r="AI24">
+        <v>0.5715983</v>
+      </c>
+      <c r="AJ24">
+        <v>0.5899546</v>
+      </c>
+      <c r="AK24">
+        <v>0.52146583999999996</v>
+      </c>
+      <c r="AL24">
+        <v>0.66196429999999995</v>
+      </c>
+      <c r="AM24">
+        <v>0.57345109999999999</v>
+      </c>
+      <c r="AN24">
+        <v>0.50610690000000003</v>
+      </c>
+      <c r="AO24">
+        <v>0.51771940000000005</v>
+      </c>
+      <c r="AP24">
+        <v>0.56005263000000005</v>
+      </c>
+      <c r="AQ24">
+        <v>0.51189804000000005</v>
+      </c>
+      <c r="AR24">
+        <v>0.51354540000000004</v>
+      </c>
+      <c r="AS24">
+        <v>0.48014151999999999</v>
+      </c>
+      <c r="AT24">
+        <v>0.65822530000000001</v>
+      </c>
+      <c r="AU24">
+        <v>0.6278473</v>
+      </c>
+      <c r="AV24">
+        <v>0.67173039999999995</v>
+      </c>
+      <c r="AW24">
+        <v>0.63225019999999998</v>
+      </c>
+      <c r="AX24">
+        <v>0.66033167000000004</v>
+      </c>
+      <c r="AY24">
+        <v>0.59101504000000005</v>
+      </c>
+      <c r="AZ24">
+        <v>0.53004399999999996</v>
+      </c>
+      <c r="BA24">
+        <v>0.55437530000000002</v>
+      </c>
+      <c r="BB24">
+        <v>0.58317184</v>
+      </c>
+      <c r="BC24">
+        <v>0.55464363000000005</v>
+      </c>
+      <c r="BD24">
+        <v>0.48758203</v>
+      </c>
+      <c r="BE24">
+        <v>0.46718878000000003</v>
+      </c>
+      <c r="BF24">
+        <v>0.53842263999999995</v>
+      </c>
+      <c r="BG24">
+        <v>0.53691990000000001</v>
+      </c>
+      <c r="BH24">
+        <v>0.53678316000000004</v>
+      </c>
+      <c r="BI24">
+        <v>0.53970735999999997</v>
+      </c>
+      <c r="BJ24">
+        <v>0.48503283000000003</v>
+      </c>
+      <c r="BK24">
+        <v>0.45155995999999998</v>
+      </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -1733,8 +5333,152 @@
       <c r="O25">
         <v>3.4267838299874001</v>
       </c>
+      <c r="P25">
+        <v>0.66326594000000005</v>
+      </c>
+      <c r="Q25">
+        <v>0.73575630000000003</v>
+      </c>
+      <c r="R25">
+        <v>0.65603849999999997</v>
+      </c>
+      <c r="S25">
+        <v>0.59333234999999995</v>
+      </c>
+      <c r="T25">
+        <v>0.70966949999999995</v>
+      </c>
+      <c r="U25">
+        <v>0.73836005000000005</v>
+      </c>
+      <c r="V25">
+        <v>0.83471150000000005</v>
+      </c>
+      <c r="W25">
+        <v>0.74701905000000002</v>
+      </c>
+      <c r="X25">
+        <v>0.79750805999999996</v>
+      </c>
+      <c r="Y25">
+        <v>0.72515099999999999</v>
+      </c>
+      <c r="Z25">
+        <v>0.88749623</v>
+      </c>
+      <c r="AA25">
+        <v>0.7701867</v>
+      </c>
+      <c r="AB25">
+        <v>0.63916361331939697</v>
+      </c>
+      <c r="AC25">
+        <v>0.51110637187957697</v>
+      </c>
+      <c r="AD25">
+        <v>0.50687628984451205</v>
+      </c>
+      <c r="AE25">
+        <v>0.53813821077346802</v>
+      </c>
+      <c r="AF25">
+        <v>0.551835596561431</v>
+      </c>
+      <c r="AG25">
+        <v>0.444297164678573</v>
+      </c>
+      <c r="AH25">
+        <v>0.73314800000000002</v>
+      </c>
+      <c r="AI25">
+        <v>0.59465670000000004</v>
+      </c>
+      <c r="AJ25">
+        <v>0.61753809999999998</v>
+      </c>
+      <c r="AK25">
+        <v>0.54139364000000001</v>
+      </c>
+      <c r="AL25">
+        <v>0.66108239999999996</v>
+      </c>
+      <c r="AM25">
+        <v>0.59311723999999999</v>
+      </c>
+      <c r="AN25">
+        <v>0.51186489999999996</v>
+      </c>
+      <c r="AO25">
+        <v>0.52572419999999997</v>
+      </c>
+      <c r="AP25">
+        <v>0.55112410000000001</v>
+      </c>
+      <c r="AQ25">
+        <v>0.50281469999999995</v>
+      </c>
+      <c r="AR25">
+        <v>0.50924060000000004</v>
+      </c>
+      <c r="AS25">
+        <v>0.48994470000000001</v>
+      </c>
+      <c r="AT25">
+        <v>0.6892142</v>
+      </c>
+      <c r="AU25">
+        <v>0.65871626000000005</v>
+      </c>
+      <c r="AV25">
+        <v>0.64877339999999994</v>
+      </c>
+      <c r="AW25">
+        <v>0.61144889999999996</v>
+      </c>
+      <c r="AX25">
+        <v>0.63940629999999998</v>
+      </c>
+      <c r="AY25">
+        <v>0.58493364000000003</v>
+      </c>
+      <c r="AZ25">
+        <v>0.52191233999999997</v>
+      </c>
+      <c r="BA25">
+        <v>0.56198809999999999</v>
+      </c>
+      <c r="BB25">
+        <v>0.57287500000000002</v>
+      </c>
+      <c r="BC25">
+        <v>0.54665900000000001</v>
+      </c>
+      <c r="BD25">
+        <v>0.49040990000000001</v>
+      </c>
+      <c r="BE25">
+        <v>0.49227130000000002</v>
+      </c>
+      <c r="BF25">
+        <v>0.53181160000000005</v>
+      </c>
+      <c r="BG25">
+        <v>0.54298539999999995</v>
+      </c>
+      <c r="BH25">
+        <v>0.51927066</v>
+      </c>
+      <c r="BI25">
+        <v>0.52097130000000003</v>
+      </c>
+      <c r="BJ25">
+        <v>0.47712919999999998</v>
+      </c>
+      <c r="BK25">
+        <v>0.48242829999999998</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -1777,8 +5521,152 @@
       <c r="O26">
         <v>3.6875960525804499</v>
       </c>
+      <c r="P26">
+        <v>0.62237200000000004</v>
+      </c>
+      <c r="Q26">
+        <v>0.68278265000000005</v>
+      </c>
+      <c r="R26">
+        <v>0.63053970000000004</v>
+      </c>
+      <c r="S26">
+        <v>0.57111710000000004</v>
+      </c>
+      <c r="T26">
+        <v>0.63258769999999998</v>
+      </c>
+      <c r="U26">
+        <v>0.69687209999999999</v>
+      </c>
+      <c r="V26">
+        <v>0.80045915000000001</v>
+      </c>
+      <c r="W26">
+        <v>0.74369806000000005</v>
+      </c>
+      <c r="X26">
+        <v>0.77969253000000005</v>
+      </c>
+      <c r="Y26">
+        <v>0.70644605000000005</v>
+      </c>
+      <c r="Z26">
+        <v>0.85898859999999999</v>
+      </c>
+      <c r="AA26">
+        <v>0.77561020000000003</v>
+      </c>
+      <c r="AB26">
+        <v>0.63175618648528997</v>
+      </c>
+      <c r="AC26">
+        <v>0.53575760126113803</v>
+      </c>
+      <c r="AD26">
+        <v>0.46597594022750799</v>
+      </c>
+      <c r="AE26">
+        <v>0.49693128466606101</v>
+      </c>
+      <c r="AF26">
+        <v>0.55640423297882002</v>
+      </c>
+      <c r="AG26">
+        <v>0.45940658450126598</v>
+      </c>
+      <c r="AH26">
+        <v>0.68053580000000002</v>
+      </c>
+      <c r="AI26">
+        <v>0.52136760000000004</v>
+      </c>
+      <c r="AJ26">
+        <v>0.56033957000000001</v>
+      </c>
+      <c r="AK26">
+        <v>0.49601388000000002</v>
+      </c>
+      <c r="AL26">
+        <v>0.62546990000000002</v>
+      </c>
+      <c r="AM26">
+        <v>0.5498345</v>
+      </c>
+      <c r="AN26">
+        <v>0.47724931999999998</v>
+      </c>
+      <c r="AO26">
+        <v>0.49402583</v>
+      </c>
+      <c r="AP26">
+        <v>0.50874805000000001</v>
+      </c>
+      <c r="AQ26">
+        <v>0.47848096000000001</v>
+      </c>
+      <c r="AR26">
+        <v>0.47163992999999999</v>
+      </c>
+      <c r="AS26">
+        <v>0.44395182</v>
+      </c>
+      <c r="AT26">
+        <v>0.69845349999999995</v>
+      </c>
+      <c r="AU26">
+        <v>0.65091955999999995</v>
+      </c>
+      <c r="AV26">
+        <v>0.6849326</v>
+      </c>
+      <c r="AW26">
+        <v>0.67185519999999999</v>
+      </c>
+      <c r="AX26">
+        <v>0.61801620000000002</v>
+      </c>
+      <c r="AY26">
+        <v>0.55755215999999996</v>
+      </c>
+      <c r="AZ26">
+        <v>0.51965640000000002</v>
+      </c>
+      <c r="BA26">
+        <v>0.54145515</v>
+      </c>
+      <c r="BB26">
+        <v>0.56665030000000005</v>
+      </c>
+      <c r="BC26">
+        <v>0.54529559999999999</v>
+      </c>
+      <c r="BD26">
+        <v>0.47625600000000001</v>
+      </c>
+      <c r="BE26">
+        <v>0.47740834999999998</v>
+      </c>
+      <c r="BF26">
+        <v>0.53275894999999995</v>
+      </c>
+      <c r="BG26">
+        <v>0.51301399999999997</v>
+      </c>
+      <c r="BH26">
+        <v>0.52148309999999998</v>
+      </c>
+      <c r="BI26">
+        <v>0.5009287</v>
+      </c>
+      <c r="BJ26">
+        <v>0.49250704000000001</v>
+      </c>
+      <c r="BK26">
+        <v>0.46390366999999999</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2004</v>
       </c>
@@ -1824,8 +5712,152 @@
       <c r="O27">
         <v>4.1910946315345603</v>
       </c>
+      <c r="P27">
+        <v>0.52202309999999996</v>
+      </c>
+      <c r="Q27">
+        <v>0.58048975000000003</v>
+      </c>
+      <c r="R27">
+        <v>0.52479779999999998</v>
+      </c>
+      <c r="S27">
+        <v>0.49407613</v>
+      </c>
+      <c r="T27">
+        <v>0.56199589999999999</v>
+      </c>
+      <c r="U27">
+        <v>0.56991979999999998</v>
+      </c>
+      <c r="V27">
+        <v>0.66682839999999999</v>
+      </c>
+      <c r="W27">
+        <v>0.62837419999999999</v>
+      </c>
+      <c r="X27">
+        <v>0.65044679999999999</v>
+      </c>
+      <c r="Y27">
+        <v>0.56431830000000005</v>
+      </c>
+      <c r="Z27">
+        <v>0.69126177</v>
+      </c>
+      <c r="AA27">
+        <v>0.62111700000000003</v>
+      </c>
+      <c r="AB27">
+        <v>0.53120911121368397</v>
+      </c>
+      <c r="AC27">
+        <v>0.42294955253601002</v>
+      </c>
+      <c r="AD27">
+        <v>0.41471004486083901</v>
+      </c>
+      <c r="AE27">
+        <v>0.41039884090423501</v>
+      </c>
+      <c r="AF27">
+        <v>0.47584578394889798</v>
+      </c>
+      <c r="AG27">
+        <v>0.406907558441162</v>
+      </c>
+      <c r="AH27">
+        <v>0.5654148</v>
+      </c>
+      <c r="AI27">
+        <v>0.41156517999999997</v>
+      </c>
+      <c r="AJ27">
+        <v>0.44693875</v>
+      </c>
+      <c r="AK27">
+        <v>0.39693610000000001</v>
+      </c>
+      <c r="AL27">
+        <v>0.50361900000000004</v>
+      </c>
+      <c r="AM27">
+        <v>0.40094750000000001</v>
+      </c>
+      <c r="AN27">
+        <v>0.49807420000000002</v>
+      </c>
+      <c r="AO27">
+        <v>0.49086505000000002</v>
+      </c>
+      <c r="AP27">
+        <v>0.53239775</v>
+      </c>
+      <c r="AQ27">
+        <v>0.49651640000000002</v>
+      </c>
+      <c r="AR27">
+        <v>0.4800855</v>
+      </c>
+      <c r="AS27">
+        <v>0.40745526999999998</v>
+      </c>
+      <c r="AT27">
+        <v>0.55703365999999999</v>
+      </c>
+      <c r="AU27">
+        <v>0.50203220000000004</v>
+      </c>
+      <c r="AV27">
+        <v>0.55075854000000002</v>
+      </c>
+      <c r="AW27">
+        <v>0.51429385000000005</v>
+      </c>
+      <c r="AX27">
+        <v>0.55341200000000002</v>
+      </c>
+      <c r="AY27">
+        <v>0.44516749999999999</v>
+      </c>
+      <c r="AZ27">
+        <v>0.45217197999999997</v>
+      </c>
+      <c r="BA27">
+        <v>0.48878178</v>
+      </c>
+      <c r="BB27">
+        <v>0.48735415999999998</v>
+      </c>
+      <c r="BC27">
+        <v>0.48106073999999999</v>
+      </c>
+      <c r="BD27">
+        <v>0.41850453999999998</v>
+      </c>
+      <c r="BE27">
+        <v>0.41561174000000001</v>
+      </c>
+      <c r="BF27">
+        <v>0.50767839999999997</v>
+      </c>
+      <c r="BG27">
+        <v>0.48166806000000001</v>
+      </c>
+      <c r="BH27">
+        <v>0.48971477000000002</v>
+      </c>
+      <c r="BI27">
+        <v>0.46416718000000001</v>
+      </c>
+      <c r="BJ27">
+        <v>0.46017366999999998</v>
+      </c>
+      <c r="BK27">
+        <v>0.3941056</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -1871,8 +5903,152 @@
       <c r="O28">
         <v>3.66772172880325</v>
       </c>
+      <c r="P28">
+        <v>0.63357359999999996</v>
+      </c>
+      <c r="Q28">
+        <v>0.70256364000000004</v>
+      </c>
+      <c r="R28">
+        <v>0.62815279999999996</v>
+      </c>
+      <c r="S28">
+        <v>0.54468070000000002</v>
+      </c>
+      <c r="T28">
+        <v>0.67274845000000005</v>
+      </c>
+      <c r="U28">
+        <v>0.72188985000000006</v>
+      </c>
+      <c r="V28">
+        <v>0.70062080000000004</v>
+      </c>
+      <c r="W28">
+        <v>0.62073873999999996</v>
+      </c>
+      <c r="X28">
+        <v>0.70593099999999998</v>
+      </c>
+      <c r="Y28">
+        <v>0.60336316000000001</v>
+      </c>
+      <c r="Z28">
+        <v>0.70158494000000005</v>
+      </c>
+      <c r="AA28">
+        <v>0.62654829999999995</v>
+      </c>
+      <c r="AB28">
+        <v>0.62297797203063898</v>
+      </c>
+      <c r="AC28">
+        <v>0.51829159259796098</v>
+      </c>
+      <c r="AD28">
+        <v>0.47290706634521401</v>
+      </c>
+      <c r="AE28">
+        <v>0.50453460216522195</v>
+      </c>
+      <c r="AF28">
+        <v>0.52686154842376698</v>
+      </c>
+      <c r="AG28">
+        <v>0.44836756587028498</v>
+      </c>
+      <c r="AH28">
+        <v>0.70820329999999998</v>
+      </c>
+      <c r="AI28">
+        <v>0.56578340000000005</v>
+      </c>
+      <c r="AJ28">
+        <v>0.56506670000000003</v>
+      </c>
+      <c r="AK28">
+        <v>0.48600065999999997</v>
+      </c>
+      <c r="AL28">
+        <v>0.66236687000000005</v>
+      </c>
+      <c r="AM28">
+        <v>0.57969680000000001</v>
+      </c>
+      <c r="AN28">
+        <v>0.46737047999999998</v>
+      </c>
+      <c r="AO28">
+        <v>0.50476659999999995</v>
+      </c>
+      <c r="AP28">
+        <v>0.51298500000000002</v>
+      </c>
+      <c r="AQ28">
+        <v>0.47901729999999998</v>
+      </c>
+      <c r="AR28">
+        <v>0.46682040000000002</v>
+      </c>
+      <c r="AS28">
+        <v>0.44057605</v>
+      </c>
+      <c r="AT28">
+        <v>0.66434013999999997</v>
+      </c>
+      <c r="AU28">
+        <v>0.62668979999999996</v>
+      </c>
+      <c r="AV28">
+        <v>0.64982616999999998</v>
+      </c>
+      <c r="AW28">
+        <v>0.62461610000000001</v>
+      </c>
+      <c r="AX28">
+        <v>0.61664649999999999</v>
+      </c>
+      <c r="AY28">
+        <v>0.53754939999999996</v>
+      </c>
+      <c r="AZ28">
+        <v>0.51131219999999999</v>
+      </c>
+      <c r="BA28">
+        <v>0.56574970000000002</v>
+      </c>
+      <c r="BB28">
+        <v>0.55940639999999997</v>
+      </c>
+      <c r="BC28">
+        <v>0.53544502999999999</v>
+      </c>
+      <c r="BD28">
+        <v>0.4981717</v>
+      </c>
+      <c r="BE28">
+        <v>0.47467256000000002</v>
+      </c>
+      <c r="BF28">
+        <v>0.53582669999999999</v>
+      </c>
+      <c r="BG28">
+        <v>0.53700669999999995</v>
+      </c>
+      <c r="BH28">
+        <v>0.50177190000000005</v>
+      </c>
+      <c r="BI28">
+        <v>0.49403976999999999</v>
+      </c>
+      <c r="BJ28">
+        <v>0.51039109999999999</v>
+      </c>
+      <c r="BK28">
+        <v>0.46718204000000002</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -1918,8 +6094,152 @@
       <c r="O29">
         <v>3.6459743020072999</v>
       </c>
+      <c r="P29">
+        <v>0.66811679999999996</v>
+      </c>
+      <c r="Q29">
+        <v>0.69230150000000001</v>
+      </c>
+      <c r="R29">
+        <v>0.62937725</v>
+      </c>
+      <c r="S29">
+        <v>0.54521560000000002</v>
+      </c>
+      <c r="T29">
+        <v>0.66962129999999997</v>
+      </c>
+      <c r="U29">
+        <v>0.66746459999999996</v>
+      </c>
+      <c r="V29">
+        <v>0.71509593999999999</v>
+      </c>
+      <c r="W29">
+        <v>0.63689960000000001</v>
+      </c>
+      <c r="X29">
+        <v>0.71027063999999995</v>
+      </c>
+      <c r="Y29">
+        <v>0.58125037000000002</v>
+      </c>
+      <c r="Z29">
+        <v>0.78507906000000005</v>
+      </c>
+      <c r="AA29">
+        <v>0.68736403999999995</v>
+      </c>
+      <c r="AB29">
+        <v>0.62444424629211404</v>
+      </c>
+      <c r="AC29">
+        <v>0.52681612968444802</v>
+      </c>
+      <c r="AD29">
+        <v>0.51389843225479104</v>
+      </c>
+      <c r="AE29">
+        <v>0.53669631481170599</v>
+      </c>
+      <c r="AF29">
+        <v>0.53401708602905196</v>
+      </c>
+      <c r="AG29">
+        <v>0.49724695086479098</v>
+      </c>
+      <c r="AH29">
+        <v>0.69268149999999995</v>
+      </c>
+      <c r="AI29">
+        <v>0.56649446000000003</v>
+      </c>
+      <c r="AJ29">
+        <v>0.54234199999999999</v>
+      </c>
+      <c r="AK29">
+        <v>0.48873830000000001</v>
+      </c>
+      <c r="AL29">
+        <v>0.65001655000000003</v>
+      </c>
+      <c r="AM29">
+        <v>0.58055950000000001</v>
+      </c>
+      <c r="AN29">
+        <v>0.49558449999999998</v>
+      </c>
+      <c r="AO29">
+        <v>0.50277906999999999</v>
+      </c>
+      <c r="AP29">
+        <v>0.52667326000000003</v>
+      </c>
+      <c r="AQ29">
+        <v>0.48245934000000001</v>
+      </c>
+      <c r="AR29">
+        <v>0.47778672</v>
+      </c>
+      <c r="AS29">
+        <v>0.45701997999999999</v>
+      </c>
+      <c r="AT29">
+        <v>0.65085137000000004</v>
+      </c>
+      <c r="AU29">
+        <v>0.59852545999999995</v>
+      </c>
+      <c r="AV29">
+        <v>0.63603589999999999</v>
+      </c>
+      <c r="AW29">
+        <v>0.63471602999999999</v>
+      </c>
+      <c r="AX29">
+        <v>0.5856422</v>
+      </c>
+      <c r="AY29">
+        <v>0.48508119999999999</v>
+      </c>
+      <c r="AZ29">
+        <v>0.50165249999999995</v>
+      </c>
+      <c r="BA29">
+        <v>0.54709090000000005</v>
+      </c>
+      <c r="BB29">
+        <v>0.56777759999999999</v>
+      </c>
+      <c r="BC29">
+        <v>0.55511737000000005</v>
+      </c>
+      <c r="BD29">
+        <v>0.47456574000000001</v>
+      </c>
+      <c r="BE29">
+        <v>0.46214694000000001</v>
+      </c>
+      <c r="BF29">
+        <v>0.54584529999999998</v>
+      </c>
+      <c r="BG29">
+        <v>0.54593239999999998</v>
+      </c>
+      <c r="BH29">
+        <v>0.52892229999999996</v>
+      </c>
+      <c r="BI29">
+        <v>0.52296584999999995</v>
+      </c>
+      <c r="BJ29">
+        <v>0.51050660000000003</v>
+      </c>
+      <c r="BK29">
+        <v>0.45664555000000001</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2007</v>
       </c>
@@ -1965,8 +6285,152 @@
       <c r="O30">
         <v>3.8696618158343301</v>
       </c>
+      <c r="P30">
+        <v>0.60921970000000003</v>
+      </c>
+      <c r="Q30">
+        <v>0.64955026000000005</v>
+      </c>
+      <c r="R30">
+        <v>0.61889159999999999</v>
+      </c>
+      <c r="S30">
+        <v>0.56399730000000003</v>
+      </c>
+      <c r="T30">
+        <v>0.60303810000000002</v>
+      </c>
+      <c r="U30">
+        <v>0.60633389999999998</v>
+      </c>
+      <c r="V30">
+        <v>0.71442055999999998</v>
+      </c>
+      <c r="W30">
+        <v>0.61451069999999997</v>
+      </c>
+      <c r="X30">
+        <v>0.7309097</v>
+      </c>
+      <c r="Y30">
+        <v>0.64409090000000002</v>
+      </c>
+      <c r="Z30">
+        <v>0.73864733999999999</v>
+      </c>
+      <c r="AA30">
+        <v>0.63851654999999996</v>
+      </c>
+      <c r="AB30">
+        <v>0.67725145816802901</v>
+      </c>
+      <c r="AC30">
+        <v>0.50542616844177202</v>
+      </c>
+      <c r="AD30">
+        <v>0.49236404895782399</v>
+      </c>
+      <c r="AE30">
+        <v>0.50631922483444203</v>
+      </c>
+      <c r="AF30">
+        <v>0.54121792316436701</v>
+      </c>
+      <c r="AG30">
+        <v>0.43500137329101501</v>
+      </c>
+      <c r="AH30">
+        <v>0.66443459999999999</v>
+      </c>
+      <c r="AI30">
+        <v>0.55018497</v>
+      </c>
+      <c r="AJ30">
+        <v>0.55271389999999998</v>
+      </c>
+      <c r="AK30">
+        <v>0.46334797</v>
+      </c>
+      <c r="AL30">
+        <v>0.60543643999999996</v>
+      </c>
+      <c r="AM30">
+        <v>0.55890876</v>
+      </c>
+      <c r="AN30">
+        <v>0.49298639999999999</v>
+      </c>
+      <c r="AO30">
+        <v>0.48814815</v>
+      </c>
+      <c r="AP30">
+        <v>0.52323779999999998</v>
+      </c>
+      <c r="AQ30">
+        <v>0.48746800000000001</v>
+      </c>
+      <c r="AR30">
+        <v>0.47116550000000001</v>
+      </c>
+      <c r="AS30">
+        <v>0.42532049999999999</v>
+      </c>
+      <c r="AT30">
+        <v>0.64243543000000003</v>
+      </c>
+      <c r="AU30">
+        <v>0.55662109999999998</v>
+      </c>
+      <c r="AV30">
+        <v>0.63876960000000005</v>
+      </c>
+      <c r="AW30">
+        <v>0.60949770000000003</v>
+      </c>
+      <c r="AX30">
+        <v>0.60956600000000005</v>
+      </c>
+      <c r="AY30">
+        <v>0.50231475000000003</v>
+      </c>
+      <c r="AZ30">
+        <v>0.51203173000000002</v>
+      </c>
+      <c r="BA30">
+        <v>0.53684114999999999</v>
+      </c>
+      <c r="BB30">
+        <v>0.54725754000000004</v>
+      </c>
+      <c r="BC30">
+        <v>0.54388000000000003</v>
+      </c>
+      <c r="BD30">
+        <v>0.47018652999999999</v>
+      </c>
+      <c r="BE30">
+        <v>0.40932689999999999</v>
+      </c>
+      <c r="BF30">
+        <v>0.52924347000000005</v>
+      </c>
+      <c r="BG30">
+        <v>0.52637520000000004</v>
+      </c>
+      <c r="BH30">
+        <v>0.51675873999999999</v>
+      </c>
+      <c r="BI30">
+        <v>0.5171306</v>
+      </c>
+      <c r="BJ30">
+        <v>0.49360700000000002</v>
+      </c>
+      <c r="BK30">
+        <v>0.42851305000000001</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -2012,8 +6476,152 @@
       <c r="O31">
         <v>3.6930112712995999</v>
       </c>
+      <c r="P31">
+        <v>0.54774624000000005</v>
+      </c>
+      <c r="Q31">
+        <v>0.62856274999999995</v>
+      </c>
+      <c r="R31">
+        <v>0.55742670000000005</v>
+      </c>
+      <c r="S31">
+        <v>0.49199252999999998</v>
+      </c>
+      <c r="T31">
+        <v>0.59835419999999995</v>
+      </c>
+      <c r="U31">
+        <v>0.61530817000000004</v>
+      </c>
+      <c r="V31">
+        <v>0.71857846000000003</v>
+      </c>
+      <c r="W31">
+        <v>0.65636620000000001</v>
+      </c>
+      <c r="X31">
+        <v>0.69717779999999996</v>
+      </c>
+      <c r="Y31">
+        <v>0.60932684000000004</v>
+      </c>
+      <c r="Z31">
+        <v>0.77224696000000004</v>
+      </c>
+      <c r="AA31">
+        <v>0.67455370000000003</v>
+      </c>
+      <c r="AB31">
+        <v>0.61092531681060702</v>
+      </c>
+      <c r="AC31">
+        <v>0.566988945007324</v>
+      </c>
+      <c r="AD31">
+        <v>0.46374395489692599</v>
+      </c>
+      <c r="AE31">
+        <v>0.52154129743576005</v>
+      </c>
+      <c r="AF31">
+        <v>0.56299775838851895</v>
+      </c>
+      <c r="AG31">
+        <v>0.47764337062835599</v>
+      </c>
+      <c r="AH31">
+        <v>0.63432379999999999</v>
+      </c>
+      <c r="AI31">
+        <v>0.46933013000000001</v>
+      </c>
+      <c r="AJ31">
+        <v>0.4818132</v>
+      </c>
+      <c r="AK31">
+        <v>0.42930721999999999</v>
+      </c>
+      <c r="AL31">
+        <v>0.5587046</v>
+      </c>
+      <c r="AM31">
+        <v>0.48368942999999998</v>
+      </c>
+      <c r="AN31">
+        <v>0.47665756999999997</v>
+      </c>
+      <c r="AO31">
+        <v>0.49343213000000002</v>
+      </c>
+      <c r="AP31">
+        <v>0.53047096999999999</v>
+      </c>
+      <c r="AQ31">
+        <v>0.47502714000000001</v>
+      </c>
+      <c r="AR31">
+        <v>0.49827549999999998</v>
+      </c>
+      <c r="AS31">
+        <v>0.45523809999999998</v>
+      </c>
+      <c r="AT31">
+        <v>0.6132457</v>
+      </c>
+      <c r="AU31">
+        <v>0.62422246000000003</v>
+      </c>
+      <c r="AV31">
+        <v>0.63857293000000004</v>
+      </c>
+      <c r="AW31">
+        <v>0.61853634999999996</v>
+      </c>
+      <c r="AX31">
+        <v>0.66056895000000004</v>
+      </c>
+      <c r="AY31">
+        <v>0.56719419999999998</v>
+      </c>
+      <c r="AZ31">
+        <v>0.46516708000000001</v>
+      </c>
+      <c r="BA31">
+        <v>0.5395297</v>
+      </c>
+      <c r="BB31">
+        <v>0.52977280000000004</v>
+      </c>
+      <c r="BC31">
+        <v>0.52049789999999996</v>
+      </c>
+      <c r="BD31">
+        <v>0.44279619999999997</v>
+      </c>
+      <c r="BE31">
+        <v>0.42198186999999998</v>
+      </c>
+      <c r="BF31">
+        <v>0.53354769999999996</v>
+      </c>
+      <c r="BG31">
+        <v>0.53042599999999995</v>
+      </c>
+      <c r="BH31">
+        <v>0.52339363000000005</v>
+      </c>
+      <c r="BI31">
+        <v>0.5037431</v>
+      </c>
+      <c r="BJ31">
+        <v>0.49354072999999998</v>
+      </c>
+      <c r="BK31">
+        <v>0.45896775000000001</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -2059,8 +6667,152 @@
       <c r="O32">
         <v>3.7862189958474501</v>
       </c>
+      <c r="P32">
+        <v>0.59110963000000005</v>
+      </c>
+      <c r="Q32">
+        <v>0.68890320000000005</v>
+      </c>
+      <c r="R32">
+        <v>0.57506239999999997</v>
+      </c>
+      <c r="S32">
+        <v>0.55304880000000001</v>
+      </c>
+      <c r="T32">
+        <v>0.62921389999999999</v>
+      </c>
+      <c r="U32">
+        <v>0.65221209999999996</v>
+      </c>
+      <c r="V32">
+        <v>0.65573572999999996</v>
+      </c>
+      <c r="W32">
+        <v>0.59154545999999997</v>
+      </c>
+      <c r="X32">
+        <v>0.61267154999999995</v>
+      </c>
+      <c r="Y32">
+        <v>0.55642605000000001</v>
+      </c>
+      <c r="Z32">
+        <v>0.64618014999999995</v>
+      </c>
+      <c r="AA32">
+        <v>0.60405450000000005</v>
+      </c>
+      <c r="AB32">
+        <v>0.64808124303817705</v>
+      </c>
+      <c r="AC32">
+        <v>0.51839852333068803</v>
+      </c>
+      <c r="AD32">
+        <v>0.51491367816925004</v>
+      </c>
+      <c r="AE32">
+        <v>0.54899108409881503</v>
+      </c>
+      <c r="AF32">
+        <v>0.54147857427597001</v>
+      </c>
+      <c r="AG32">
+        <v>0.45489811897277799</v>
+      </c>
+      <c r="AH32">
+        <v>0.59630656000000004</v>
+      </c>
+      <c r="AI32">
+        <v>0.40995949999999998</v>
+      </c>
+      <c r="AJ32">
+        <v>0.45517903999999998</v>
+      </c>
+      <c r="AK32">
+        <v>0.36954462999999999</v>
+      </c>
+      <c r="AL32">
+        <v>0.52088374000000004</v>
+      </c>
+      <c r="AM32">
+        <v>0.45533436999999999</v>
+      </c>
+      <c r="AN32">
+        <v>0.48174095</v>
+      </c>
+      <c r="AO32">
+        <v>0.48406840000000001</v>
+      </c>
+      <c r="AP32">
+        <v>0.53078879999999995</v>
+      </c>
+      <c r="AQ32">
+        <v>0.46552080000000001</v>
+      </c>
+      <c r="AR32">
+        <v>0.48591402</v>
+      </c>
+      <c r="AS32">
+        <v>0.46786477999999998</v>
+      </c>
+      <c r="AT32">
+        <v>0.60815465000000002</v>
+      </c>
+      <c r="AU32">
+        <v>0.54787490000000005</v>
+      </c>
+      <c r="AV32">
+        <v>0.63224789999999997</v>
+      </c>
+      <c r="AW32">
+        <v>0.58728004</v>
+      </c>
+      <c r="AX32">
+        <v>0.57599020000000001</v>
+      </c>
+      <c r="AY32">
+        <v>0.49685713999999997</v>
+      </c>
+      <c r="AZ32">
+        <v>0.42782863999999998</v>
+      </c>
+      <c r="BA32">
+        <v>0.47035097999999997</v>
+      </c>
+      <c r="BB32">
+        <v>0.48271257000000001</v>
+      </c>
+      <c r="BC32">
+        <v>0.47575770000000001</v>
+      </c>
+      <c r="BD32">
+        <v>0.41982779999999997</v>
+      </c>
+      <c r="BE32">
+        <v>0.41005605000000001</v>
+      </c>
+      <c r="BF32">
+        <v>0.53872955</v>
+      </c>
+      <c r="BG32">
+        <v>0.52432939999999995</v>
+      </c>
+      <c r="BH32">
+        <v>0.51307199999999997</v>
+      </c>
+      <c r="BI32">
+        <v>0.51513909999999996</v>
+      </c>
+      <c r="BJ32">
+        <v>0.48319167000000002</v>
+      </c>
+      <c r="BK32">
+        <v>0.46045577999999998</v>
+      </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -2106,8 +6858,152 @@
       <c r="O33">
         <v>3.9307249101505701</v>
       </c>
+      <c r="P33">
+        <v>0.55182266000000002</v>
+      </c>
+      <c r="Q33">
+        <v>0.62304780000000004</v>
+      </c>
+      <c r="R33">
+        <v>0.55592240000000004</v>
+      </c>
+      <c r="S33">
+        <v>0.50593984000000003</v>
+      </c>
+      <c r="T33">
+        <v>0.60536206000000004</v>
+      </c>
+      <c r="U33">
+        <v>0.61937653999999998</v>
+      </c>
+      <c r="V33">
+        <v>0.7129626</v>
+      </c>
+      <c r="W33">
+        <v>0.64100086999999994</v>
+      </c>
+      <c r="X33">
+        <v>0.67150885000000005</v>
+      </c>
+      <c r="Y33">
+        <v>0.63802720000000002</v>
+      </c>
+      <c r="Z33">
+        <v>0.72383690000000001</v>
+      </c>
+      <c r="AA33">
+        <v>0.60900383999999996</v>
+      </c>
+      <c r="AB33">
+        <v>0.60254669189453103</v>
+      </c>
+      <c r="AC33">
+        <v>0.49514093995094299</v>
+      </c>
+      <c r="AD33">
+        <v>0.46927279233932401</v>
+      </c>
+      <c r="AE33">
+        <v>0.485000669956207</v>
+      </c>
+      <c r="AF33">
+        <v>0.50019323825836104</v>
+      </c>
+      <c r="AG33">
+        <v>0.40977808833122198</v>
+      </c>
+      <c r="AH33">
+        <v>0.57905459999999997</v>
+      </c>
+      <c r="AI33">
+        <v>0.41057816000000003</v>
+      </c>
+      <c r="AJ33">
+        <v>0.45997047000000002</v>
+      </c>
+      <c r="AK33">
+        <v>0.37750840000000002</v>
+      </c>
+      <c r="AL33">
+        <v>0.50082590000000005</v>
+      </c>
+      <c r="AM33">
+        <v>0.43475264000000002</v>
+      </c>
+      <c r="AN33">
+        <v>0.48862981999999999</v>
+      </c>
+      <c r="AO33">
+        <v>0.48874190000000001</v>
+      </c>
+      <c r="AP33">
+        <v>0.53075194000000003</v>
+      </c>
+      <c r="AQ33">
+        <v>0.47653626999999998</v>
+      </c>
+      <c r="AR33">
+        <v>0.47082275000000001</v>
+      </c>
+      <c r="AS33">
+        <v>0.43017775000000003</v>
+      </c>
+      <c r="AT33">
+        <v>0.63062024000000005</v>
+      </c>
+      <c r="AU33">
+        <v>0.60316979999999998</v>
+      </c>
+      <c r="AV33">
+        <v>0.60273843999999999</v>
+      </c>
+      <c r="AW33">
+        <v>0.62169563999999999</v>
+      </c>
+      <c r="AX33">
+        <v>0.61511534000000001</v>
+      </c>
+      <c r="AY33">
+        <v>0.52088939999999995</v>
+      </c>
+      <c r="AZ33">
+        <v>0.46090287000000002</v>
+      </c>
+      <c r="BA33">
+        <v>0.48260075000000002</v>
+      </c>
+      <c r="BB33">
+        <v>0.46083215</v>
+      </c>
+      <c r="BC33">
+        <v>0.46626064</v>
+      </c>
+      <c r="BD33">
+        <v>0.40957737</v>
+      </c>
+      <c r="BE33">
+        <v>0.36986356999999997</v>
+      </c>
+      <c r="BF33">
+        <v>0.52030544999999995</v>
+      </c>
+      <c r="BG33">
+        <v>0.50547403000000002</v>
+      </c>
+      <c r="BH33">
+        <v>0.50642633000000004</v>
+      </c>
+      <c r="BI33">
+        <v>0.50329500000000005</v>
+      </c>
+      <c r="BJ33">
+        <v>0.48671108000000002</v>
+      </c>
+      <c r="BK33">
+        <v>0.41704655000000002</v>
+      </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -2153,8 +7049,152 @@
       <c r="O34">
         <v>3.73272778570899</v>
       </c>
+      <c r="P34">
+        <v>0.59007679999999996</v>
+      </c>
+      <c r="Q34">
+        <v>0.63421139999999998</v>
+      </c>
+      <c r="R34">
+        <v>0.58413280000000001</v>
+      </c>
+      <c r="S34">
+        <v>0.49533695</v>
+      </c>
+      <c r="T34">
+        <v>0.63894843999999995</v>
+      </c>
+      <c r="U34">
+        <v>0.64051749999999996</v>
+      </c>
+      <c r="V34">
+        <v>0.5841845</v>
+      </c>
+      <c r="W34">
+        <v>0.53259254</v>
+      </c>
+      <c r="X34">
+        <v>0.58001559999999996</v>
+      </c>
+      <c r="Y34">
+        <v>0.53743350000000001</v>
+      </c>
+      <c r="Z34">
+        <v>0.57213400000000003</v>
+      </c>
+      <c r="AA34">
+        <v>0.53556954999999995</v>
+      </c>
+      <c r="AB34">
+        <v>0.62069797515869096</v>
+      </c>
+      <c r="AC34">
+        <v>0.53510499000549305</v>
+      </c>
+      <c r="AD34">
+        <v>0.45415771007537797</v>
+      </c>
+      <c r="AE34">
+        <v>0.49191716313362099</v>
+      </c>
+      <c r="AF34">
+        <v>0.53460741043090798</v>
+      </c>
+      <c r="AG34">
+        <v>0.49608212709426802</v>
+      </c>
+      <c r="AH34">
+        <v>0.57470447000000002</v>
+      </c>
+      <c r="AI34">
+        <v>0.39199435999999999</v>
+      </c>
+      <c r="AJ34">
+        <v>0.46840409999999999</v>
+      </c>
+      <c r="AK34">
+        <v>0.40576394999999998</v>
+      </c>
+      <c r="AL34">
+        <v>0.50729860000000004</v>
+      </c>
+      <c r="AM34">
+        <v>0.438191</v>
+      </c>
+      <c r="AN34">
+        <v>0.47611165</v>
+      </c>
+      <c r="AO34">
+        <v>0.46331176000000002</v>
+      </c>
+      <c r="AP34">
+        <v>0.51943269999999997</v>
+      </c>
+      <c r="AQ34">
+        <v>0.46968894999999999</v>
+      </c>
+      <c r="AR34">
+        <v>0.46847513000000002</v>
+      </c>
+      <c r="AS34">
+        <v>0.42605009999999999</v>
+      </c>
+      <c r="AT34">
+        <v>0.66753786999999998</v>
+      </c>
+      <c r="AU34">
+        <v>0.61691680000000004</v>
+      </c>
+      <c r="AV34">
+        <v>0.64518260000000005</v>
+      </c>
+      <c r="AW34">
+        <v>0.63649089999999997</v>
+      </c>
+      <c r="AX34">
+        <v>0.62141573000000005</v>
+      </c>
+      <c r="AY34">
+        <v>0.52007119999999996</v>
+      </c>
+      <c r="AZ34">
+        <v>0.43069136000000002</v>
+      </c>
+      <c r="BA34">
+        <v>0.46442162999999997</v>
+      </c>
+      <c r="BB34">
+        <v>0.44066554000000002</v>
+      </c>
+      <c r="BC34">
+        <v>0.45738172999999999</v>
+      </c>
+      <c r="BD34">
+        <v>0.38207616999999999</v>
+      </c>
+      <c r="BE34">
+        <v>0.35428762000000003</v>
+      </c>
+      <c r="BF34">
+        <v>0.53268355000000001</v>
+      </c>
+      <c r="BG34">
+        <v>0.49914156999999998</v>
+      </c>
+      <c r="BH34">
+        <v>0.48506978000000001</v>
+      </c>
+      <c r="BI34">
+        <v>0.47658374999999997</v>
+      </c>
+      <c r="BJ34">
+        <v>0.48043257</v>
+      </c>
+      <c r="BK34">
+        <v>0.42322673999999999</v>
+      </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2012</v>
       </c>
@@ -2200,8 +7240,152 @@
       <c r="O35">
         <v>3.8711010095928202</v>
       </c>
+      <c r="P35">
+        <v>0.57824063000000003</v>
+      </c>
+      <c r="Q35">
+        <v>0.63790153999999999</v>
+      </c>
+      <c r="R35">
+        <v>0.57038759999999999</v>
+      </c>
+      <c r="S35">
+        <v>0.50641320000000001</v>
+      </c>
+      <c r="T35">
+        <v>0.61090237000000003</v>
+      </c>
+      <c r="U35">
+        <v>0.62203956000000005</v>
+      </c>
+      <c r="V35">
+        <v>0.64017049999999998</v>
+      </c>
+      <c r="W35">
+        <v>0.57839346000000003</v>
+      </c>
+      <c r="X35">
+        <v>0.60519179999999995</v>
+      </c>
+      <c r="Y35">
+        <v>0.5600195</v>
+      </c>
+      <c r="Z35">
+        <v>0.65968214999999997</v>
+      </c>
+      <c r="AA35">
+        <v>0.58197485999999998</v>
+      </c>
+      <c r="AB35">
+        <v>0.62351512908935502</v>
+      </c>
+      <c r="AC35">
+        <v>0.54873049259185702</v>
+      </c>
+      <c r="AD35">
+        <v>0.46704444289207397</v>
+      </c>
+      <c r="AE35">
+        <v>0.48914995789527799</v>
+      </c>
+      <c r="AF35">
+        <v>0.54168188571929898</v>
+      </c>
+      <c r="AG35">
+        <v>0.487024515867233</v>
+      </c>
+      <c r="AH35">
+        <v>0.54801869999999997</v>
+      </c>
+      <c r="AI35">
+        <v>0.3978042</v>
+      </c>
+      <c r="AJ35">
+        <v>0.41156924</v>
+      </c>
+      <c r="AK35">
+        <v>0.40297428000000002</v>
+      </c>
+      <c r="AL35">
+        <v>0.47625952999999999</v>
+      </c>
+      <c r="AM35">
+        <v>0.41845784000000003</v>
+      </c>
+      <c r="AN35">
+        <v>0.51900979999999997</v>
+      </c>
+      <c r="AO35">
+        <v>0.49184795999999997</v>
+      </c>
+      <c r="AP35">
+        <v>0.54159670000000004</v>
+      </c>
+      <c r="AQ35">
+        <v>0.49038862999999999</v>
+      </c>
+      <c r="AR35">
+        <v>0.51628229999999997</v>
+      </c>
+      <c r="AS35">
+        <v>0.45915228000000002</v>
+      </c>
+      <c r="AT35">
+        <v>0.67816779999999999</v>
+      </c>
+      <c r="AU35">
+        <v>0.56748339999999997</v>
+      </c>
+      <c r="AV35">
+        <v>0.64564484</v>
+      </c>
+      <c r="AW35">
+        <v>0.61017330000000003</v>
+      </c>
+      <c r="AX35">
+        <v>0.62871933000000002</v>
+      </c>
+      <c r="AY35">
+        <v>0.50758296000000003</v>
+      </c>
+      <c r="AZ35">
+        <v>0.46479502</v>
+      </c>
+      <c r="BA35">
+        <v>0.49394774000000002</v>
+      </c>
+      <c r="BB35">
+        <v>0.48918762999999998</v>
+      </c>
+      <c r="BC35">
+        <v>0.48408954999999998</v>
+      </c>
+      <c r="BD35">
+        <v>0.43535203</v>
+      </c>
+      <c r="BE35">
+        <v>0.42223709999999998</v>
+      </c>
+      <c r="BF35">
+        <v>0.55434669999999997</v>
+      </c>
+      <c r="BG35">
+        <v>0.53277205999999999</v>
+      </c>
+      <c r="BH35">
+        <v>0.5210186</v>
+      </c>
+      <c r="BI35">
+        <v>0.53029009999999999</v>
+      </c>
+      <c r="BJ35">
+        <v>0.49489440000000001</v>
+      </c>
+      <c r="BK35">
+        <v>0.44455086999999999</v>
+      </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2013</v>
       </c>
@@ -2247,8 +7431,152 @@
       <c r="O36">
         <v>3.7890049134733599</v>
       </c>
+      <c r="P36">
+        <v>0.52843030000000002</v>
+      </c>
+      <c r="Q36">
+        <v>0.58049565999999997</v>
+      </c>
+      <c r="R36">
+        <v>0.53716372999999995</v>
+      </c>
+      <c r="S36">
+        <v>0.4974247</v>
+      </c>
+      <c r="T36">
+        <v>0.56340646999999999</v>
+      </c>
+      <c r="U36">
+        <v>0.56753439999999999</v>
+      </c>
+      <c r="V36">
+        <v>0.63529400000000003</v>
+      </c>
+      <c r="W36">
+        <v>0.53178316000000003</v>
+      </c>
+      <c r="X36">
+        <v>0.64721304000000002</v>
+      </c>
+      <c r="Y36">
+        <v>0.57028319999999999</v>
+      </c>
+      <c r="Z36">
+        <v>0.67684140000000004</v>
+      </c>
+      <c r="AA36">
+        <v>0.59169300000000002</v>
+      </c>
+      <c r="AB36">
+        <v>0.56301951408386197</v>
+      </c>
+      <c r="AC36">
+        <v>0.49322724342346103</v>
+      </c>
+      <c r="AD36">
+        <v>0.41358613967895502</v>
+      </c>
+      <c r="AE36">
+        <v>0.44229739904403598</v>
+      </c>
+      <c r="AF36">
+        <v>0.48747164011001498</v>
+      </c>
+      <c r="AG36">
+        <v>0.40604671835899298</v>
+      </c>
+      <c r="AH36">
+        <v>0.63256179999999995</v>
+      </c>
+      <c r="AI36">
+        <v>0.42792817999999999</v>
+      </c>
+      <c r="AJ36">
+        <v>0.49188533000000001</v>
+      </c>
+      <c r="AK36">
+        <v>0.43006319999999998</v>
+      </c>
+      <c r="AL36">
+        <v>0.53912305999999999</v>
+      </c>
+      <c r="AM36">
+        <v>0.44238347</v>
+      </c>
+      <c r="AN36">
+        <v>0.53841673999999995</v>
+      </c>
+      <c r="AO36">
+        <v>0.49769934999999998</v>
+      </c>
+      <c r="AP36">
+        <v>0.55826569999999998</v>
+      </c>
+      <c r="AQ36">
+        <v>0.50494490000000003</v>
+      </c>
+      <c r="AR36">
+        <v>0.53453390000000001</v>
+      </c>
+      <c r="AS36">
+        <v>0.46711278000000001</v>
+      </c>
+      <c r="AT36">
+        <v>0.69909595999999996</v>
+      </c>
+      <c r="AU36">
+        <v>0.64690875999999997</v>
+      </c>
+      <c r="AV36">
+        <v>0.67055929999999997</v>
+      </c>
+      <c r="AW36">
+        <v>0.66541919999999999</v>
+      </c>
+      <c r="AX36">
+        <v>0.64005650000000003</v>
+      </c>
+      <c r="AY36">
+        <v>0.55173373000000003</v>
+      </c>
+      <c r="AZ36">
+        <v>0.43896168000000002</v>
+      </c>
+      <c r="BA36">
+        <v>0.46620998000000002</v>
+      </c>
+      <c r="BB36">
+        <v>0.46815103000000002</v>
+      </c>
+      <c r="BC36">
+        <v>0.47003356000000002</v>
+      </c>
+      <c r="BD36">
+        <v>0.39049149999999999</v>
+      </c>
+      <c r="BE36">
+        <v>0.39407345999999999</v>
+      </c>
+      <c r="BF36">
+        <v>0.58545510000000001</v>
+      </c>
+      <c r="BG36">
+        <v>0.54599140000000002</v>
+      </c>
+      <c r="BH36">
+        <v>0.55359155000000004</v>
+      </c>
+      <c r="BI36">
+        <v>0.5323061</v>
+      </c>
+      <c r="BJ36">
+        <v>0.5145267</v>
+      </c>
+      <c r="BK36">
+        <v>0.46652670000000002</v>
+      </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2014</v>
       </c>
@@ -2294,8 +7622,152 @@
       <c r="O37">
         <v>3.7234256317613399</v>
       </c>
+      <c r="P37">
+        <v>0.54976049999999999</v>
+      </c>
+      <c r="Q37">
+        <v>0.59563582999999998</v>
+      </c>
+      <c r="R37">
+        <v>0.54488515999999998</v>
+      </c>
+      <c r="S37">
+        <v>0.47755805000000001</v>
+      </c>
+      <c r="T37">
+        <v>0.58151189999999997</v>
+      </c>
+      <c r="U37">
+        <v>0.58432989999999996</v>
+      </c>
+      <c r="V37">
+        <v>0.63950410000000002</v>
+      </c>
+      <c r="W37">
+        <v>0.59549779999999997</v>
+      </c>
+      <c r="X37">
+        <v>0.62325079999999999</v>
+      </c>
+      <c r="Y37">
+        <v>0.59883739999999996</v>
+      </c>
+      <c r="Z37">
+        <v>0.62697756000000004</v>
+      </c>
+      <c r="AA37">
+        <v>0.54466170000000003</v>
+      </c>
+      <c r="AB37">
+        <v>0.61399781703948897</v>
+      </c>
+      <c r="AC37">
+        <v>0.51789230108261097</v>
+      </c>
+      <c r="AD37">
+        <v>0.46120873093605003</v>
+      </c>
+      <c r="AE37">
+        <v>0.47404325008392301</v>
+      </c>
+      <c r="AF37">
+        <v>0.451090157032012</v>
+      </c>
+      <c r="AG37">
+        <v>0.40923079848289401</v>
+      </c>
+      <c r="AH37">
+        <v>0.65504205000000004</v>
+      </c>
+      <c r="AI37">
+        <v>0.49621904</v>
+      </c>
+      <c r="AJ37">
+        <v>0.5030346</v>
+      </c>
+      <c r="AK37">
+        <v>0.44662323999999998</v>
+      </c>
+      <c r="AL37">
+        <v>0.55590384999999998</v>
+      </c>
+      <c r="AM37">
+        <v>0.47757405000000003</v>
+      </c>
+      <c r="AN37">
+        <v>0.52608449999999995</v>
+      </c>
+      <c r="AO37">
+        <v>0.50190436999999999</v>
+      </c>
+      <c r="AP37">
+        <v>0.56532185999999995</v>
+      </c>
+      <c r="AQ37">
+        <v>0.5131732</v>
+      </c>
+      <c r="AR37">
+        <v>0.50633360000000005</v>
+      </c>
+      <c r="AS37">
+        <v>0.46800628</v>
+      </c>
+      <c r="AT37">
+        <v>0.68566643999999999</v>
+      </c>
+      <c r="AU37">
+        <v>0.66361680000000001</v>
+      </c>
+      <c r="AV37">
+        <v>0.63952609999999999</v>
+      </c>
+      <c r="AW37">
+        <v>0.62513816</v>
+      </c>
+      <c r="AX37">
+        <v>0.66352869999999997</v>
+      </c>
+      <c r="AY37">
+        <v>0.56242424000000002</v>
+      </c>
+      <c r="AZ37">
+        <v>0.41990243999999999</v>
+      </c>
+      <c r="BA37">
+        <v>0.46823984000000002</v>
+      </c>
+      <c r="BB37">
+        <v>0.47926259999999998</v>
+      </c>
+      <c r="BC37">
+        <v>0.47190100000000001</v>
+      </c>
+      <c r="BD37">
+        <v>0.38435747999999997</v>
+      </c>
+      <c r="BE37">
+        <v>0.39300603000000001</v>
+      </c>
+      <c r="BF37">
+        <v>0.51345240000000003</v>
+      </c>
+      <c r="BG37">
+        <v>0.46650504999999998</v>
+      </c>
+      <c r="BH37">
+        <v>0.48054980000000003</v>
+      </c>
+      <c r="BI37">
+        <v>0.47283570000000003</v>
+      </c>
+      <c r="BJ37">
+        <v>0.45664652999999999</v>
+      </c>
+      <c r="BK37">
+        <v>0.4039336</v>
+      </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -2341,8 +7813,152 @@
       <c r="O38">
         <v>3.8154559693251699</v>
       </c>
+      <c r="P38">
+        <v>0.5526065</v>
+      </c>
+      <c r="Q38">
+        <v>0.62255013000000003</v>
+      </c>
+      <c r="R38">
+        <v>0.56342137000000003</v>
+      </c>
+      <c r="S38">
+        <v>0.49971399999999999</v>
+      </c>
+      <c r="T38">
+        <v>0.57001745999999998</v>
+      </c>
+      <c r="U38">
+        <v>0.57111049999999997</v>
+      </c>
+      <c r="V38">
+        <v>0.61772760000000004</v>
+      </c>
+      <c r="W38">
+        <v>0.57349159999999999</v>
+      </c>
+      <c r="X38">
+        <v>0.60257185000000002</v>
+      </c>
+      <c r="Y38">
+        <v>0.54912890000000003</v>
+      </c>
+      <c r="Z38">
+        <v>0.59860820000000003</v>
+      </c>
+      <c r="AA38">
+        <v>0.58105205999999998</v>
+      </c>
+      <c r="AB38">
+        <v>0.67465460300445501</v>
+      </c>
+      <c r="AC38">
+        <v>0.59123301506042403</v>
+      </c>
+      <c r="AD38">
+        <v>0.53842079639434803</v>
+      </c>
+      <c r="AE38">
+        <v>0.51730036735534601</v>
+      </c>
+      <c r="AF38">
+        <v>0.56710851192474299</v>
+      </c>
+      <c r="AG38">
+        <v>0.49263498187065102</v>
+      </c>
+      <c r="AH38">
+        <v>0.64180990000000004</v>
+      </c>
+      <c r="AI38">
+        <v>0.46990444999999997</v>
+      </c>
+      <c r="AJ38">
+        <v>0.51414700000000002</v>
+      </c>
+      <c r="AK38">
+        <v>0.45026785000000003</v>
+      </c>
+      <c r="AL38">
+        <v>0.54663039999999996</v>
+      </c>
+      <c r="AM38">
+        <v>0.44744882000000002</v>
+      </c>
+      <c r="AN38">
+        <v>0.49370199999999997</v>
+      </c>
+      <c r="AO38">
+        <v>0.47903420000000002</v>
+      </c>
+      <c r="AP38">
+        <v>0.53375110000000003</v>
+      </c>
+      <c r="AQ38">
+        <v>0.47681256999999999</v>
+      </c>
+      <c r="AR38">
+        <v>0.46940135999999999</v>
+      </c>
+      <c r="AS38">
+        <v>0.43326854999999997</v>
+      </c>
+      <c r="AT38">
+        <v>0.60311579999999998</v>
+      </c>
+      <c r="AU38">
+        <v>0.5700693</v>
+      </c>
+      <c r="AV38">
+        <v>0.62937330000000002</v>
+      </c>
+      <c r="AW38">
+        <v>0.622637</v>
+      </c>
+      <c r="AX38">
+        <v>0.55266939999999998</v>
+      </c>
+      <c r="AY38">
+        <v>0.49314740000000001</v>
+      </c>
+      <c r="AZ38">
+        <v>0.43721628000000001</v>
+      </c>
+      <c r="BA38">
+        <v>0.49110179999999998</v>
+      </c>
+      <c r="BB38">
+        <v>0.48496348</v>
+      </c>
+      <c r="BC38">
+        <v>0.47570220000000002</v>
+      </c>
+      <c r="BD38">
+        <v>0.39020139999999998</v>
+      </c>
+      <c r="BE38">
+        <v>0.4127941</v>
+      </c>
+      <c r="BF38">
+        <v>0.49686130000000001</v>
+      </c>
+      <c r="BG38">
+        <v>0.48843273999999998</v>
+      </c>
+      <c r="BH38">
+        <v>0.48056680000000002</v>
+      </c>
+      <c r="BI38">
+        <v>0.49305359999999998</v>
+      </c>
+      <c r="BJ38">
+        <v>0.43516242999999999</v>
+      </c>
+      <c r="BK38">
+        <v>0.39763009999999999</v>
+      </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -2388,8 +8004,152 @@
       <c r="O39">
         <v>3.8712523826870902</v>
       </c>
+      <c r="P39">
+        <v>0.56941710000000001</v>
+      </c>
+      <c r="Q39">
+        <v>0.59629659999999995</v>
+      </c>
+      <c r="R39">
+        <v>0.54894719999999997</v>
+      </c>
+      <c r="S39">
+        <v>0.48561316999999998</v>
+      </c>
+      <c r="T39">
+        <v>0.57386314999999999</v>
+      </c>
+      <c r="U39">
+        <v>0.57967544000000004</v>
+      </c>
+      <c r="V39">
+        <v>0.57104140000000003</v>
+      </c>
+      <c r="W39">
+        <v>0.55857396000000004</v>
+      </c>
+      <c r="X39">
+        <v>0.48803323999999998</v>
+      </c>
+      <c r="Y39">
+        <v>0.48718396000000003</v>
+      </c>
+      <c r="Z39">
+        <v>0.50335383</v>
+      </c>
+      <c r="AA39">
+        <v>0.5345915</v>
+      </c>
+      <c r="AB39">
+        <v>0.62150311470031705</v>
+      </c>
+      <c r="AC39">
+        <v>0.525742948055267</v>
+      </c>
+      <c r="AD39">
+        <v>0.47539374232292098</v>
+      </c>
+      <c r="AE39">
+        <v>0.52409422397613503</v>
+      </c>
+      <c r="AF39">
+        <v>0.48748418688774098</v>
+      </c>
+      <c r="AG39">
+        <v>0.43349352478981001</v>
+      </c>
+      <c r="AH39">
+        <v>0.57901760000000002</v>
+      </c>
+      <c r="AI39">
+        <v>0.43046835</v>
+      </c>
+      <c r="AJ39">
+        <v>0.47506900000000002</v>
+      </c>
+      <c r="AK39">
+        <v>0.44724629999999999</v>
+      </c>
+      <c r="AL39">
+        <v>0.4785838</v>
+      </c>
+      <c r="AM39">
+        <v>0.44216028000000002</v>
+      </c>
+      <c r="AN39">
+        <v>0.49891537000000002</v>
+      </c>
+      <c r="AO39">
+        <v>0.49066108000000003</v>
+      </c>
+      <c r="AP39">
+        <v>0.539439</v>
+      </c>
+      <c r="AQ39">
+        <v>0.50418399999999997</v>
+      </c>
+      <c r="AR39">
+        <v>0.48259276000000001</v>
+      </c>
+      <c r="AS39">
+        <v>0.43325975999999999</v>
+      </c>
+      <c r="AT39">
+        <v>0.61379254000000005</v>
+      </c>
+      <c r="AU39">
+        <v>0.61871045999999996</v>
+      </c>
+      <c r="AV39">
+        <v>0.60365354999999998</v>
+      </c>
+      <c r="AW39">
+        <v>0.62056440000000002</v>
+      </c>
+      <c r="AX39">
+        <v>0.56435215000000005</v>
+      </c>
+      <c r="AY39">
+        <v>0.46659833000000001</v>
+      </c>
+      <c r="AZ39">
+        <v>0.40896916</v>
+      </c>
+      <c r="BA39">
+        <v>0.45456394999999999</v>
+      </c>
+      <c r="BB39">
+        <v>0.44278777000000002</v>
+      </c>
+      <c r="BC39">
+        <v>0.44770628000000001</v>
+      </c>
+      <c r="BD39">
+        <v>0.37006830000000002</v>
+      </c>
+      <c r="BE39">
+        <v>0.37085590000000002</v>
+      </c>
+      <c r="BF39">
+        <v>0.50627564999999997</v>
+      </c>
+      <c r="BG39">
+        <v>0.50242679999999995</v>
+      </c>
+      <c r="BH39">
+        <v>0.48639460000000001</v>
+      </c>
+      <c r="BI39">
+        <v>0.48599229999999999</v>
+      </c>
+      <c r="BJ39">
+        <v>0.44139588000000002</v>
+      </c>
+      <c r="BK39">
+        <v>0.41452122000000002</v>
+      </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2017</v>
       </c>
@@ -2435,8 +8195,152 @@
       <c r="O40">
         <v>3.6815739562881999</v>
       </c>
+      <c r="P40">
+        <v>0.57327790000000001</v>
+      </c>
+      <c r="Q40">
+        <v>0.60926150000000001</v>
+      </c>
+      <c r="R40">
+        <v>0.54071709999999995</v>
+      </c>
+      <c r="S40">
+        <v>0.50566540000000004</v>
+      </c>
+      <c r="T40">
+        <v>0.57869594999999996</v>
+      </c>
+      <c r="U40">
+        <v>0.56353724000000005</v>
+      </c>
+      <c r="V40">
+        <v>0.54971932999999995</v>
+      </c>
+      <c r="W40">
+        <v>0.52227884999999996</v>
+      </c>
+      <c r="X40">
+        <v>0.45914143000000002</v>
+      </c>
+      <c r="Y40">
+        <v>0.48693997</v>
+      </c>
+      <c r="Z40">
+        <v>0.49065223000000002</v>
+      </c>
+      <c r="AA40">
+        <v>0.48314825</v>
+      </c>
+      <c r="AB40">
+        <v>0.69492220878600997</v>
+      </c>
+      <c r="AC40">
+        <v>0.54265385866165095</v>
+      </c>
+      <c r="AD40">
+        <v>0.51645994186401301</v>
+      </c>
+      <c r="AE40">
+        <v>0.51324695348739602</v>
+      </c>
+      <c r="AF40">
+        <v>0.563953876495361</v>
+      </c>
+      <c r="AG40">
+        <v>0.46949017047882002</v>
+      </c>
+      <c r="AH40">
+        <v>0.58699120000000005</v>
+      </c>
+      <c r="AI40">
+        <v>0.41051792999999998</v>
+      </c>
+      <c r="AJ40">
+        <v>0.44026113</v>
+      </c>
+      <c r="AK40">
+        <v>0.38608614000000002</v>
+      </c>
+      <c r="AL40">
+        <v>0.48676455000000002</v>
+      </c>
+      <c r="AM40">
+        <v>0.41099548000000002</v>
+      </c>
+      <c r="AN40">
+        <v>0.51904879999999998</v>
+      </c>
+      <c r="AO40">
+        <v>0.52313184999999995</v>
+      </c>
+      <c r="AP40">
+        <v>0.54324839999999996</v>
+      </c>
+      <c r="AQ40">
+        <v>0.48894179999999998</v>
+      </c>
+      <c r="AR40">
+        <v>0.51366126999999995</v>
+      </c>
+      <c r="AS40">
+        <v>0.48120865000000002</v>
+      </c>
+      <c r="AT40">
+        <v>0.65905963999999995</v>
+      </c>
+      <c r="AU40">
+        <v>0.60140883999999994</v>
+      </c>
+      <c r="AV40">
+        <v>0.65078259999999999</v>
+      </c>
+      <c r="AW40">
+        <v>0.67240095</v>
+      </c>
+      <c r="AX40">
+        <v>0.66256090000000001</v>
+      </c>
+      <c r="AY40">
+        <v>0.53680919999999999</v>
+      </c>
+      <c r="AZ40">
+        <v>0.46416154999999998</v>
+      </c>
+      <c r="BA40">
+        <v>0.5073086</v>
+      </c>
+      <c r="BB40">
+        <v>0.50380789999999998</v>
+      </c>
+      <c r="BC40">
+        <v>0.50512029999999997</v>
+      </c>
+      <c r="BD40">
+        <v>0.41448521999999999</v>
+      </c>
+      <c r="BE40">
+        <v>0.40804443000000001</v>
+      </c>
+      <c r="BF40">
+        <v>0.51175660000000001</v>
+      </c>
+      <c r="BG40">
+        <v>0.49867043</v>
+      </c>
+      <c r="BH40">
+        <v>0.48443114999999998</v>
+      </c>
+      <c r="BI40">
+        <v>0.49200260000000001</v>
+      </c>
+      <c r="BJ40">
+        <v>0.45070082</v>
+      </c>
+      <c r="BK40">
+        <v>0.40869272000000001</v>
+      </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2482,8 +8386,152 @@
       <c r="O41">
         <v>3.6059038742495599</v>
       </c>
+      <c r="P41">
+        <v>0.59102429999999995</v>
+      </c>
+      <c r="Q41">
+        <v>0.65441070000000001</v>
+      </c>
+      <c r="R41">
+        <v>0.56630230000000004</v>
+      </c>
+      <c r="S41">
+        <v>0.51339400000000002</v>
+      </c>
+      <c r="T41">
+        <v>0.60416579999999998</v>
+      </c>
+      <c r="U41">
+        <v>0.62795409999999996</v>
+      </c>
+      <c r="V41">
+        <v>0.5882735</v>
+      </c>
+      <c r="W41">
+        <v>0.53402019999999994</v>
+      </c>
+      <c r="X41">
+        <v>0.49011569999999999</v>
+      </c>
+      <c r="Y41">
+        <v>0.51548517000000005</v>
+      </c>
+      <c r="Z41">
+        <v>0.53722009999999998</v>
+      </c>
+      <c r="AA41">
+        <v>0.50337160000000003</v>
+      </c>
+      <c r="AB41">
+        <v>0.66260558366775502</v>
+      </c>
+      <c r="AC41">
+        <v>0.59884989261627197</v>
+      </c>
+      <c r="AD41">
+        <v>0.49592578411102201</v>
+      </c>
+      <c r="AE41">
+        <v>0.52391594648361195</v>
+      </c>
+      <c r="AF41">
+        <v>0.56989669799804599</v>
+      </c>
+      <c r="AG41">
+        <v>0.48196369409561102</v>
+      </c>
+      <c r="AH41">
+        <v>0.64944919999999995</v>
+      </c>
+      <c r="AI41">
+        <v>0.46891379999999999</v>
+      </c>
+      <c r="AJ41">
+        <v>0.50018494999999996</v>
+      </c>
+      <c r="AK41">
+        <v>0.44405699999999998</v>
+      </c>
+      <c r="AL41">
+        <v>0.55841149999999995</v>
+      </c>
+      <c r="AM41">
+        <v>0.46974924000000001</v>
+      </c>
+      <c r="AN41">
+        <v>0.50946400000000003</v>
+      </c>
+      <c r="AO41">
+        <v>0.50676829999999995</v>
+      </c>
+      <c r="AP41">
+        <v>0.52397479999999996</v>
+      </c>
+      <c r="AQ41">
+        <v>0.49959360000000003</v>
+      </c>
+      <c r="AR41">
+        <v>0.50081944</v>
+      </c>
+      <c r="AS41">
+        <v>0.45254972999999998</v>
+      </c>
+      <c r="AT41">
+        <v>0.6554837</v>
+      </c>
+      <c r="AU41">
+        <v>0.59549989999999997</v>
+      </c>
+      <c r="AV41">
+        <v>0.64318129999999996</v>
+      </c>
+      <c r="AW41">
+        <v>0.63121059999999996</v>
+      </c>
+      <c r="AX41">
+        <v>0.65470600000000001</v>
+      </c>
+      <c r="AY41">
+        <v>0.54299160000000002</v>
+      </c>
+      <c r="AZ41">
+        <v>0.49285167000000002</v>
+      </c>
+      <c r="BA41">
+        <v>0.52839243000000002</v>
+      </c>
+      <c r="BB41">
+        <v>0.52090037</v>
+      </c>
+      <c r="BC41">
+        <v>0.50028956000000002</v>
+      </c>
+      <c r="BD41">
+        <v>0.44027218000000001</v>
+      </c>
+      <c r="BE41">
+        <v>0.43028808000000002</v>
+      </c>
+      <c r="BF41">
+        <v>0.51724064000000003</v>
+      </c>
+      <c r="BG41">
+        <v>0.50026300000000001</v>
+      </c>
+      <c r="BH41">
+        <v>0.46119323000000001</v>
+      </c>
+      <c r="BI41">
+        <v>0.48333773000000002</v>
+      </c>
+      <c r="BJ41">
+        <v>0.44815021999999999</v>
+      </c>
+      <c r="BK41">
+        <v>0.40581650000000002</v>
+      </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2019</v>
       </c>
@@ -2529,8 +8577,152 @@
       <c r="O42">
         <v>3.6647099008911499</v>
       </c>
+      <c r="P42">
+        <v>0.56938239999999996</v>
+      </c>
+      <c r="Q42">
+        <v>0.64114165000000001</v>
+      </c>
+      <c r="R42">
+        <v>0.55182659999999994</v>
+      </c>
+      <c r="S42">
+        <v>0.5065868</v>
+      </c>
+      <c r="T42">
+        <v>0.58744025</v>
+      </c>
+      <c r="U42">
+        <v>0.59601159999999997</v>
+      </c>
+      <c r="V42">
+        <v>0.59933037</v>
+      </c>
+      <c r="W42">
+        <v>0.55376744</v>
+      </c>
+      <c r="X42">
+        <v>0.53831446000000005</v>
+      </c>
+      <c r="Y42">
+        <v>0.51925695000000005</v>
+      </c>
+      <c r="Z42">
+        <v>0.5588069</v>
+      </c>
+      <c r="AA42">
+        <v>0.53389776</v>
+      </c>
+      <c r="AB42">
+        <v>0.72887575626373202</v>
+      </c>
+      <c r="AC42">
+        <v>0.69074791669845503</v>
+      </c>
+      <c r="AD42">
+        <v>0.59499919414520197</v>
+      </c>
+      <c r="AE42">
+        <v>0.67335206270217896</v>
+      </c>
+      <c r="AF42">
+        <v>0.625382959842681</v>
+      </c>
+      <c r="AG42">
+        <v>0.52846640348434404</v>
+      </c>
+      <c r="AH42">
+        <v>0.56835437</v>
+      </c>
+      <c r="AI42">
+        <v>0.45894395999999998</v>
+      </c>
+      <c r="AJ42">
+        <v>0.46132996999999998</v>
+      </c>
+      <c r="AK42">
+        <v>0.44929507000000002</v>
+      </c>
+      <c r="AL42">
+        <v>0.49214077000000001</v>
+      </c>
+      <c r="AM42">
+        <v>0.40854775999999998</v>
+      </c>
+      <c r="AN42">
+        <v>0.490313</v>
+      </c>
+      <c r="AO42">
+        <v>0.50221545000000001</v>
+      </c>
+      <c r="AP42">
+        <v>0.52945315999999998</v>
+      </c>
+      <c r="AQ42">
+        <v>0.49990398000000003</v>
+      </c>
+      <c r="AR42">
+        <v>0.49720492999999999</v>
+      </c>
+      <c r="AS42">
+        <v>0.471744</v>
+      </c>
+      <c r="AT42">
+        <v>0.67043989999999998</v>
+      </c>
+      <c r="AU42">
+        <v>0.68503559999999997</v>
+      </c>
+      <c r="AV42">
+        <v>0.65899620000000003</v>
+      </c>
+      <c r="AW42">
+        <v>0.65552294</v>
+      </c>
+      <c r="AX42">
+        <v>0.66815650000000004</v>
+      </c>
+      <c r="AY42">
+        <v>0.60720633999999996</v>
+      </c>
+      <c r="AZ42">
+        <v>0.46455259999999998</v>
+      </c>
+      <c r="BA42">
+        <v>0.51913909999999996</v>
+      </c>
+      <c r="BB42">
+        <v>0.52100709999999995</v>
+      </c>
+      <c r="BC42">
+        <v>0.51024513999999999</v>
+      </c>
+      <c r="BD42">
+        <v>0.42546921999999998</v>
+      </c>
+      <c r="BE42">
+        <v>0.43905437000000003</v>
+      </c>
+      <c r="BF42">
+        <v>0.51241250000000005</v>
+      </c>
+      <c r="BG42">
+        <v>0.5130711</v>
+      </c>
+      <c r="BH42">
+        <v>0.47390230999999999</v>
+      </c>
+      <c r="BI42">
+        <v>0.47948629999999998</v>
+      </c>
+      <c r="BJ42">
+        <v>0.46708432</v>
+      </c>
+      <c r="BK42">
+        <v>0.43816023999999998</v>
+      </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -2576,8 +8768,152 @@
       <c r="O43">
         <v>3.6415744500510798</v>
       </c>
+      <c r="P43">
+        <v>0.57669674999999998</v>
+      </c>
+      <c r="Q43">
+        <v>0.62088319999999997</v>
+      </c>
+      <c r="R43">
+        <v>0.56829894000000003</v>
+      </c>
+      <c r="S43">
+        <v>0.50948729999999998</v>
+      </c>
+      <c r="T43">
+        <v>0.59281640000000002</v>
+      </c>
+      <c r="U43">
+        <v>0.59978765000000001</v>
+      </c>
+      <c r="V43">
+        <v>0.66097519999999998</v>
+      </c>
+      <c r="W43">
+        <v>0.64265479999999997</v>
+      </c>
+      <c r="X43">
+        <v>0.58366275000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0.59511210000000003</v>
+      </c>
+      <c r="Z43">
+        <v>0.61822189999999999</v>
+      </c>
+      <c r="AA43">
+        <v>0.61037730000000001</v>
+      </c>
+      <c r="AB43">
+        <v>0.69315594434738104</v>
+      </c>
+      <c r="AC43">
+        <v>0.58949714899063099</v>
+      </c>
+      <c r="AD43">
+        <v>0.52307528257369995</v>
+      </c>
+      <c r="AE43">
+        <v>0.53396415710449197</v>
+      </c>
+      <c r="AF43">
+        <v>0.62872964143752996</v>
+      </c>
+      <c r="AG43">
+        <v>0.50293052196502597</v>
+      </c>
+      <c r="AH43">
+        <v>0.58273960000000002</v>
+      </c>
+      <c r="AI43">
+        <v>0.45204430000000001</v>
+      </c>
+      <c r="AJ43">
+        <v>0.44103152000000001</v>
+      </c>
+      <c r="AK43">
+        <v>0.45082924000000002</v>
+      </c>
+      <c r="AL43">
+        <v>0.51575280000000001</v>
+      </c>
+      <c r="AM43">
+        <v>0.44015310000000002</v>
+      </c>
+      <c r="AN43">
+        <v>0.53274714999999995</v>
+      </c>
+      <c r="AO43">
+        <v>0.55415720000000002</v>
+      </c>
+      <c r="AP43">
+        <v>0.54058720000000005</v>
+      </c>
+      <c r="AQ43">
+        <v>0.51669209999999999</v>
+      </c>
+      <c r="AR43">
+        <v>0.53154049999999997</v>
+      </c>
+      <c r="AS43">
+        <v>0.49683539999999998</v>
+      </c>
+      <c r="AT43">
+        <v>0.74539655000000005</v>
+      </c>
+      <c r="AU43">
+        <v>0.75893675999999999</v>
+      </c>
+      <c r="AV43">
+        <v>0.76024544000000005</v>
+      </c>
+      <c r="AW43">
+        <v>0.68097216000000005</v>
+      </c>
+      <c r="AX43">
+        <v>0.78380910000000004</v>
+      </c>
+      <c r="AY43">
+        <v>0.73186280000000004</v>
+      </c>
+      <c r="AZ43">
+        <v>0.46751195000000001</v>
+      </c>
+      <c r="BA43">
+        <v>0.55110230000000004</v>
+      </c>
+      <c r="BB43">
+        <v>0.49756192999999999</v>
+      </c>
+      <c r="BC43">
+        <v>0.51064180000000003</v>
+      </c>
+      <c r="BD43">
+        <v>0.43775557999999998</v>
+      </c>
+      <c r="BE43">
+        <v>0.44071683</v>
+      </c>
+      <c r="BF43">
+        <v>0.53353220000000001</v>
+      </c>
+      <c r="BG43">
+        <v>0.53914576999999997</v>
+      </c>
+      <c r="BH43">
+        <v>0.48014325000000002</v>
+      </c>
+      <c r="BI43">
+        <v>0.49598959999999997</v>
+      </c>
+      <c r="BJ43">
+        <v>0.49208108</v>
+      </c>
+      <c r="BK43">
+        <v>0.45048280000000002</v>
+      </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -2620,8 +8956,152 @@
       <c r="O44">
         <v>3.6612502232740298</v>
       </c>
+      <c r="P44">
+        <v>0.54021823000000002</v>
+      </c>
+      <c r="Q44">
+        <v>0.63214283999999998</v>
+      </c>
+      <c r="R44">
+        <v>0.56085119999999999</v>
+      </c>
+      <c r="S44">
+        <v>0.50970349999999998</v>
+      </c>
+      <c r="T44">
+        <v>0.54801034999999998</v>
+      </c>
+      <c r="U44">
+        <v>0.5567067</v>
+      </c>
+      <c r="V44">
+        <v>0.51298509999999997</v>
+      </c>
+      <c r="W44">
+        <v>0.49812119999999999</v>
+      </c>
+      <c r="X44">
+        <v>0.47692108</v>
+      </c>
+      <c r="Y44">
+        <v>0.44799063</v>
+      </c>
+      <c r="Z44">
+        <v>0.49728262000000001</v>
+      </c>
+      <c r="AA44">
+        <v>0.47728682</v>
+      </c>
+      <c r="AB44">
+        <v>0.78455233573913497</v>
+      </c>
+      <c r="AC44">
+        <v>0.64905816316604603</v>
+      </c>
+      <c r="AD44">
+        <v>0.61454415321350098</v>
+      </c>
+      <c r="AE44">
+        <v>0.62477427721023504</v>
+      </c>
+      <c r="AF44">
+        <v>0.66814756393432595</v>
+      </c>
+      <c r="AG44">
+        <v>0.563523650169372</v>
+      </c>
+      <c r="AH44">
+        <v>0.58356017000000004</v>
+      </c>
+      <c r="AI44">
+        <v>0.42270930000000001</v>
+      </c>
+      <c r="AJ44">
+        <v>0.45730194000000002</v>
+      </c>
+      <c r="AK44">
+        <v>0.44928553999999998</v>
+      </c>
+      <c r="AL44">
+        <v>0.49926627000000001</v>
+      </c>
+      <c r="AM44">
+        <v>0.41613816999999997</v>
+      </c>
+      <c r="AN44">
+        <v>0.50297259999999999</v>
+      </c>
+      <c r="AO44">
+        <v>0.53221510000000005</v>
+      </c>
+      <c r="AP44">
+        <v>0.53217935999999999</v>
+      </c>
+      <c r="AQ44">
+        <v>0.48348965999999999</v>
+      </c>
+      <c r="AR44">
+        <v>0.51022654999999995</v>
+      </c>
+      <c r="AS44">
+        <v>0.49007640000000002</v>
+      </c>
+      <c r="AT44">
+        <v>0.66478329999999997</v>
+      </c>
+      <c r="AU44">
+        <v>0.66044709999999995</v>
+      </c>
+      <c r="AV44">
+        <v>0.67276320000000001</v>
+      </c>
+      <c r="AW44">
+        <v>0.62983626000000004</v>
+      </c>
+      <c r="AX44">
+        <v>0.66090875999999998</v>
+      </c>
+      <c r="AY44">
+        <v>0.58038557000000002</v>
+      </c>
+      <c r="AZ44">
+        <v>0.47017077000000002</v>
+      </c>
+      <c r="BA44">
+        <v>0.52266959999999996</v>
+      </c>
+      <c r="BB44">
+        <v>0.50366217000000002</v>
+      </c>
+      <c r="BC44">
+        <v>0.51373553000000005</v>
+      </c>
+      <c r="BD44">
+        <v>0.45014219999999999</v>
+      </c>
+      <c r="BE44">
+        <v>0.43422793999999998</v>
+      </c>
+      <c r="BF44">
+        <v>0.5227965</v>
+      </c>
+      <c r="BG44">
+        <v>0.53758185999999997</v>
+      </c>
+      <c r="BH44">
+        <v>0.49387497000000002</v>
+      </c>
+      <c r="BI44">
+        <v>0.50626903999999995</v>
+      </c>
+      <c r="BJ44">
+        <v>0.48516107000000003</v>
+      </c>
+      <c r="BK44">
+        <v>0.45128495000000002</v>
+      </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -2664,8 +9144,134 @@
       <c r="O45">
         <v>3.60913857315338</v>
       </c>
+      <c r="P45">
+        <v>0.59844005</v>
+      </c>
+      <c r="Q45">
+        <v>0.66134440000000005</v>
+      </c>
+      <c r="R45">
+        <v>0.57956039999999998</v>
+      </c>
+      <c r="S45">
+        <v>0.51920646000000004</v>
+      </c>
+      <c r="T45">
+        <v>0.60458909999999999</v>
+      </c>
+      <c r="U45">
+        <v>0.60943139999999996</v>
+      </c>
+      <c r="V45">
+        <v>0.58559930000000004</v>
+      </c>
+      <c r="W45">
+        <v>0.56734379999999995</v>
+      </c>
+      <c r="X45">
+        <v>0.54382799999999998</v>
+      </c>
+      <c r="Y45">
+        <v>0.50886070000000005</v>
+      </c>
+      <c r="Z45">
+        <v>0.56042329999999996</v>
+      </c>
+      <c r="AA45">
+        <v>0.51820063999999999</v>
+      </c>
+      <c r="AH45">
+        <v>0.67116520000000002</v>
+      </c>
+      <c r="AI45">
+        <v>0.52808569999999999</v>
+      </c>
+      <c r="AJ45">
+        <v>0.49620407999999999</v>
+      </c>
+      <c r="AK45">
+        <v>0.49279028000000002</v>
+      </c>
+      <c r="AL45">
+        <v>0.56909644999999998</v>
+      </c>
+      <c r="AM45">
+        <v>0.49730802000000002</v>
+      </c>
+      <c r="AN45">
+        <v>0.50953649999999995</v>
+      </c>
+      <c r="AO45">
+        <v>0.56063943999999999</v>
+      </c>
+      <c r="AP45">
+        <v>0.53887236000000005</v>
+      </c>
+      <c r="AQ45">
+        <v>0.50445454999999995</v>
+      </c>
+      <c r="AR45">
+        <v>0.51353939999999998</v>
+      </c>
+      <c r="AS45">
+        <v>0.50606709999999999</v>
+      </c>
+      <c r="AT45">
+        <v>0.6977392</v>
+      </c>
+      <c r="AU45">
+        <v>0.72236319999999998</v>
+      </c>
+      <c r="AV45">
+        <v>0.69603959999999998</v>
+      </c>
+      <c r="AW45">
+        <v>0.67002046000000004</v>
+      </c>
+      <c r="AX45">
+        <v>0.68716049999999995</v>
+      </c>
+      <c r="AY45">
+        <v>0.64548119999999998</v>
+      </c>
+      <c r="AZ45">
+        <v>0.49525385999999999</v>
+      </c>
+      <c r="BA45">
+        <v>0.55249064999999997</v>
+      </c>
+      <c r="BB45">
+        <v>0.52501010000000004</v>
+      </c>
+      <c r="BC45">
+        <v>0.51841689999999996</v>
+      </c>
+      <c r="BD45">
+        <v>0.45830127999999998</v>
+      </c>
+      <c r="BE45">
+        <v>0.46294773</v>
+      </c>
+      <c r="BF45">
+        <v>0.57020247000000002</v>
+      </c>
+      <c r="BG45">
+        <v>0.57603249999999995</v>
+      </c>
+      <c r="BH45">
+        <v>0.51994467</v>
+      </c>
+      <c r="BI45">
+        <v>0.52619326</v>
+      </c>
+      <c r="BJ45">
+        <v>0.52051437</v>
+      </c>
+      <c r="BK45">
+        <v>0.48943316999999997</v>
+      </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2023</v>
       </c>
@@ -2704,6 +9310,150 @@
       </c>
       <c r="M46">
         <v>3.81893862760016</v>
+      </c>
+      <c r="P46">
+        <v>0.64902406999999995</v>
+      </c>
+      <c r="Q46">
+        <v>0.71471269999999998</v>
+      </c>
+      <c r="R46">
+        <v>0.62983610000000001</v>
+      </c>
+      <c r="S46">
+        <v>0.5741832</v>
+      </c>
+      <c r="T46">
+        <v>0.61810714</v>
+      </c>
+      <c r="U46">
+        <v>0.64301514999999998</v>
+      </c>
+      <c r="V46">
+        <v>0.58616793</v>
+      </c>
+      <c r="W46">
+        <v>0.55968410000000002</v>
+      </c>
+      <c r="X46">
+        <v>0.52643865000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0.51252699999999995</v>
+      </c>
+      <c r="Z46">
+        <v>0.56967884000000002</v>
+      </c>
+      <c r="AA46">
+        <v>0.55835239999999997</v>
+      </c>
+      <c r="AB46">
+        <v>0.76199984550475997</v>
+      </c>
+      <c r="AC46">
+        <v>0.65038347244262695</v>
+      </c>
+      <c r="AD46">
+        <v>0.68245744705200195</v>
+      </c>
+      <c r="AE46">
+        <v>0.703097224235534</v>
+      </c>
+      <c r="AF46">
+        <v>0.725414037704467</v>
+      </c>
+      <c r="AG46">
+        <v>0.62354314327239901</v>
+      </c>
+      <c r="AH46">
+        <v>0.64510082999999996</v>
+      </c>
+      <c r="AI46">
+        <v>0.48897000000000002</v>
+      </c>
+      <c r="AJ46">
+        <v>0.45591635000000003</v>
+      </c>
+      <c r="AK46">
+        <v>0.46398782999999999</v>
+      </c>
+      <c r="AL46">
+        <v>0.51336442999999998</v>
+      </c>
+      <c r="AM46">
+        <v>0.42231651999999997</v>
+      </c>
+      <c r="AN46">
+        <v>0.5000443</v>
+      </c>
+      <c r="AO46">
+        <v>0.54454499999999995</v>
+      </c>
+      <c r="AP46">
+        <v>0.5307364</v>
+      </c>
+      <c r="AQ46">
+        <v>0.47564134000000002</v>
+      </c>
+      <c r="AR46">
+        <v>0.50483630000000002</v>
+      </c>
+      <c r="AS46">
+        <v>0.50395197000000003</v>
+      </c>
+      <c r="AT46">
+        <v>0.78568243999999998</v>
+      </c>
+      <c r="AU46">
+        <v>0.81174329999999995</v>
+      </c>
+      <c r="AV46">
+        <v>0.74724716000000002</v>
+      </c>
+      <c r="AW46">
+        <v>0.76367209999999996</v>
+      </c>
+      <c r="AX46">
+        <v>0.82000320000000004</v>
+      </c>
+      <c r="AY46">
+        <v>0.73638665999999997</v>
+      </c>
+      <c r="AZ46">
+        <v>0.49257701999999998</v>
+      </c>
+      <c r="BA46">
+        <v>0.55861419999999995</v>
+      </c>
+      <c r="BB46">
+        <v>0.51845090000000005</v>
+      </c>
+      <c r="BC46">
+        <v>0.51799214000000005</v>
+      </c>
+      <c r="BD46">
+        <v>0.44274302999999998</v>
+      </c>
+      <c r="BE46">
+        <v>0.47490788</v>
+      </c>
+      <c r="BF46">
+        <v>0.5876614</v>
+      </c>
+      <c r="BG46">
+        <v>0.60439425999999996</v>
+      </c>
+      <c r="BH46">
+        <v>0.54521434999999996</v>
+      </c>
+      <c r="BI46">
+        <v>0.55351216000000003</v>
+      </c>
+      <c r="BJ46">
+        <v>0.51435649999999999</v>
+      </c>
+      <c r="BK46">
+        <v>0.49958819999999998</v>
       </c>
     </row>
   </sheetData>
